--- a/Data Transformation/Honduras.xlsx
+++ b/Data Transformation/Honduras.xlsx
@@ -797,10 +797,10 @@
         <v>2694.37089992</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>190.97173221</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>190.97173221</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>2694.37089992</v>
+        <v>2885.34263213</v>
       </c>
       <c r="X2" t="n">
-        <v>2694.37089992</v>
+        <v>2885.34263213</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.81431997</v>
@@ -835,11 +835,13 @@
       <c r="AC2" t="n">
         <v>-0.67520873</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>-0.61077868</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>-0.67520873</v>
+        <v>-0.6716108</v>
       </c>
       <c r="AH2" t="n">
         <v>106</v>
@@ -869,10 +871,10 @@
         <v>762</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -890,10 +892,10 @@
         <v>106</v>
       </c>
       <c r="AX2" t="n">
-        <v>762</v>
+        <v>835</v>
       </c>
       <c r="AY2" t="n">
-        <v>762</v>
+        <v>835</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0.7551963</v>
@@ -910,16 +912,18 @@
       <c r="BD2" t="n">
         <v>-0.62592047</v>
       </c>
-      <c r="BE2" t="inlineStr"/>
+      <c r="BE2" t="n">
+        <v>-0.43846154</v>
+      </c>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="n">
-        <v>-0.62592047</v>
+        <v>-0.61467467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
         <v>1004410</v>
@@ -975,16 +979,16 @@
         <v>2584.06334713</v>
       </c>
       <c r="Q3" t="n">
-        <v>32.49369772</v>
+        <v>86.44626599000001</v>
       </c>
       <c r="R3" t="n">
-        <v>32.49369772</v>
+        <v>86.44626599</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>35.66977344</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>35.66977344</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -993,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2616.55704485</v>
+        <v>2706.17938655</v>
       </c>
       <c r="X3" t="n">
-        <v>2616.55704485</v>
+        <v>2706.17938655</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.77466671</v>
@@ -1014,12 +1018,14 @@
         <v>-0.43090045</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.91963678</v>
-      </c>
-      <c r="AE3" t="inlineStr"/>
+        <v>-0.77387188</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>-0.92661962</v>
+      </c>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>-0.46874031</v>
+        <v>-0.50075645</v>
       </c>
       <c r="AH3" t="n">
         <v>72</v>
@@ -1049,16 +1055,16 @@
         <v>691</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="AR3" t="n">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="AS3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT3" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1070,10 +1076,10 @@
         <v>72</v>
       </c>
       <c r="AX3" t="n">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="AY3" t="n">
-        <v>707</v>
+        <v>747</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0.77380952</v>
@@ -1091,12 +1097,14 @@
         <v>-0.41886629</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.86288416</v>
-      </c>
-      <c r="BF3" t="inlineStr"/>
+        <v>-0.60756501</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>-0.92857143</v>
+      </c>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="n">
-        <v>-0.45609514</v>
+        <v>-0.49696865</v>
       </c>
     </row>
     <row r="4">
@@ -1157,10 +1165,10 @@
         <v>2117.38381133</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>154.7318939</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>154.7318939</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1175,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2117.38381133</v>
+        <v>2272.11570524</v>
       </c>
       <c r="X4" t="n">
-        <v>2117.38381133</v>
+        <v>2272.11570524</v>
       </c>
       <c r="Y4" t="n">
         <v>-0.74894946</v>
@@ -1195,11 +1203,13 @@
       <c r="AC4" t="n">
         <v>-0.46589303</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>1.11291576</v>
+      </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>-0.46589303</v>
+        <v>-0.43725741</v>
       </c>
       <c r="AH4" t="n">
         <v>65</v>
@@ -1229,10 +1239,10 @@
         <v>550</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1250,10 +1260,10 @@
         <v>65</v>
       </c>
       <c r="AX4" t="n">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="AY4" t="n">
-        <v>550</v>
+        <v>592</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0.65608466</v>
@@ -1270,11 +1280,13 @@
       <c r="BD4" t="n">
         <v>-0.4111349</v>
       </c>
-      <c r="BE4" t="inlineStr"/>
+      <c r="BE4" t="n">
+        <v>1.21052632</v>
+      </c>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="n">
-        <v>-0.4111349</v>
+        <v>-0.37880378</v>
       </c>
     </row>
     <row r="5">
@@ -1335,10 +1347,10 @@
         <v>1795.01212606</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>180.34409424</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>180.34409424</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1353,10 +1365,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1795.01212606</v>
+        <v>1975.35622029</v>
       </c>
       <c r="X5" t="n">
-        <v>1795.01212606</v>
+        <v>1975.35622029</v>
       </c>
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
@@ -1395,10 +1407,10 @@
         <v>420</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1416,10 +1428,10 @@
         <v>63</v>
       </c>
       <c r="AX5" t="n">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="AY5" t="n">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="AZ5" t="inlineStr"/>
       <c r="BA5" t="inlineStr"/>
@@ -1489,16 +1501,16 @@
         <v>1758.12078503</v>
       </c>
       <c r="Q6" t="n">
-        <v>23.41337868</v>
+        <v>100.37213645</v>
       </c>
       <c r="R6" t="n">
-        <v>23.41337868</v>
+        <v>100.37213645</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>4.88627033</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>4.88627033</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1507,10 +1519,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1781.53416372</v>
+        <v>1863.3791918</v>
       </c>
       <c r="X6" t="n">
-        <v>1781.53416372</v>
+        <v>1863.3791918</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.55255516</v>
@@ -1528,12 +1540,14 @@
         <v>-0.07522711999999999</v>
       </c>
       <c r="AD6" t="n">
-        <v>-0.84467165</v>
-      </c>
-      <c r="AE6" t="inlineStr"/>
+        <v>-0.38544001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>-0.96438239</v>
+      </c>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>-0.13498171</v>
+        <v>-0.15642413</v>
       </c>
       <c r="AH6" t="n">
         <v>58</v>
@@ -1563,16 +1577,16 @@
         <v>467</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AR6" t="n">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="AS6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1584,10 +1598,10 @@
         <v>58</v>
       </c>
       <c r="AX6" t="n">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AY6" t="n">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0.56430446</v>
@@ -1605,12 +1619,14 @@
         <v>-0.07102672</v>
       </c>
       <c r="BE6" t="n">
-        <v>-0.82051282</v>
-      </c>
-      <c r="BF6" t="inlineStr"/>
+        <v>-0.30769231</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>-0.96226415</v>
+      </c>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="n">
-        <v>-0.1280052</v>
+        <v>-0.17078916</v>
       </c>
     </row>
     <row r="7">
@@ -1618,21 +1634,21 @@
         <v>7</v>
       </c>
       <c r="B7" t="n">
-        <v>1031809</v>
+        <v>1010407</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>cascadas mall</t>
+          <t>Citymall Tegucigalpa</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1641,40 +1657,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>253.71958708</v>
+        <v>203.18740805</v>
       </c>
       <c r="H7" t="n">
-        <v>253.71958708</v>
+        <v>203.18740805</v>
       </c>
       <c r="I7" t="n">
-        <v>364.23073447</v>
+        <v>272.00238192</v>
       </c>
       <c r="J7" t="n">
-        <v>364.23073447</v>
+        <v>272.00238192</v>
       </c>
       <c r="K7" t="n">
-        <v>616.48444045</v>
+        <v>528.12438525</v>
       </c>
       <c r="L7" t="n">
-        <v>616.48444045</v>
+        <v>528.12438525</v>
       </c>
       <c r="M7" t="n">
-        <v>442.77753008</v>
+        <v>638.67625155</v>
       </c>
       <c r="N7" t="n">
-        <v>442.77753008</v>
+        <v>638.67625155</v>
       </c>
       <c r="O7" t="n">
-        <v>1677.21229209</v>
+        <v>1641.99042677</v>
       </c>
       <c r="P7" t="n">
-        <v>1677.21229209</v>
+        <v>1641.99042677</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>134.37243418</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>134.37243418</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1689,64 +1705,66 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1677.21229209</v>
+        <v>1776.36286095</v>
       </c>
       <c r="X7" t="n">
-        <v>1677.21229209</v>
+        <v>1776.36286095</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.19634968</v>
+        <v>-0.64883521</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.24284113</v>
+        <v>-0.39621509</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.30862152</v>
+        <v>-0.09514238999999999</v>
       </c>
       <c r="AB7" t="n">
-        <v>-0.61040646</v>
+        <v>-0.20866982</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0.40628477</v>
-      </c>
-      <c r="AD7" t="inlineStr"/>
+        <v>-0.32145007</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.51713144</v>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>-0.40628477</v>
+        <v>-0.34163223</v>
       </c>
       <c r="AH7" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AI7" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AK7" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AL7" t="n">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AM7" t="n">
-        <v>74</v>
+        <v>138</v>
       </c>
       <c r="AN7" t="n">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="AO7" t="n">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="AP7" t="n">
-        <v>214</v>
+        <v>440</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -1761,34 +1779,36 @@
         <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="AX7" t="n">
-        <v>214</v>
+        <v>481</v>
       </c>
       <c r="AY7" t="n">
-        <v>214</v>
+        <v>481</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0.23333333</v>
+        <v>-0.5217391300000001</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.27586207</v>
+        <v>-0.37037037</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.28846154</v>
+        <v>-0.04827586</v>
       </c>
       <c r="BC7" t="n">
-        <v>-0.60606061</v>
+        <v>-0.14285714</v>
       </c>
       <c r="BD7" t="n">
-        <v>-0.39548023</v>
-      </c>
-      <c r="BE7" t="inlineStr"/>
+        <v>-0.25042589</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-0.43055556</v>
+      </c>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="n">
-        <v>-0.39548023</v>
+        <v>-0.27010622</v>
       </c>
     </row>
     <row r="8">
@@ -1796,21 +1816,21 @@
         <v>8</v>
       </c>
       <c r="B8" t="n">
-        <v>1010407</v>
+        <v>1031809</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Citymall Tegucigalpa</t>
+          <t>cascadas mall</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Dragon Ball Super: Super Heroe</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1819,34 +1839,34 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>203.18740805</v>
+        <v>253.71958708</v>
       </c>
       <c r="H8" t="n">
-        <v>203.18740805</v>
+        <v>253.71958708</v>
       </c>
       <c r="I8" t="n">
-        <v>272.00238192</v>
+        <v>364.23073447</v>
       </c>
       <c r="J8" t="n">
-        <v>272.00238192</v>
+        <v>364.23073447</v>
       </c>
       <c r="K8" t="n">
-        <v>528.12438525</v>
+        <v>616.48444045</v>
       </c>
       <c r="L8" t="n">
-        <v>528.12438525</v>
+        <v>616.48444045</v>
       </c>
       <c r="M8" t="n">
-        <v>638.67625155</v>
+        <v>442.77753008</v>
       </c>
       <c r="N8" t="n">
-        <v>638.67625155</v>
+        <v>442.77753008</v>
       </c>
       <c r="O8" t="n">
-        <v>1641.99042677</v>
+        <v>1677.21229209</v>
       </c>
       <c r="P8" t="n">
-        <v>1641.99042677</v>
+        <v>1677.21229209</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1867,58 +1887,58 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1641.99042677</v>
+        <v>1677.21229209</v>
       </c>
       <c r="X8" t="n">
-        <v>1641.99042677</v>
+        <v>1677.21229209</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.64883521</v>
+        <v>-0.19634968</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.39621509</v>
+        <v>-0.24284113</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.09514238999999999</v>
+        <v>-0.30862152</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.20866982</v>
+        <v>-0.61040646</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.32145007</v>
+        <v>-0.40628477</v>
       </c>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>-0.32145007</v>
+        <v>-0.40628477</v>
       </c>
       <c r="AH8" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AI8" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AJ8" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AK8" t="n">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="AL8" t="n">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AM8" t="n">
-        <v>138</v>
+        <v>74</v>
       </c>
       <c r="AN8" t="n">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="AO8" t="n">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="AP8" t="n">
-        <v>440</v>
+        <v>214</v>
       </c>
       <c r="AQ8" t="n">
         <v>0</v>
@@ -1939,34 +1959,34 @@
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="AX8" t="n">
-        <v>440</v>
+        <v>214</v>
       </c>
       <c r="AY8" t="n">
-        <v>440</v>
+        <v>214</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0.5217391300000001</v>
+        <v>-0.23333333</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.37037037</v>
+        <v>-0.27586207</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.04827586</v>
+        <v>-0.28846154</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.14285714</v>
+        <v>-0.60606061</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.25042589</v>
+        <v>-0.39548023</v>
       </c>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="n">
-        <v>-0.25042589</v>
+        <v>-0.39548023</v>
       </c>
     </row>
     <row r="9">
@@ -2027,10 +2047,10 @@
         <v>1553.42677697</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>88.56364979999999</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>88.56364979999999</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -2045,10 +2065,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1553.42677697</v>
+        <v>1641.99042677</v>
       </c>
       <c r="X9" t="n">
-        <v>1553.42677697</v>
+        <v>1641.99042677</v>
       </c>
       <c r="Y9" t="n">
         <v>0.15907821</v>
@@ -2065,11 +2085,13 @@
       <c r="AC9" t="n">
         <v>-0.03615772</v>
       </c>
-      <c r="AD9" t="inlineStr"/>
+      <c r="AD9" t="n">
+        <v>0.08301456</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="n">
-        <v>-0.03615772</v>
+        <v>-0.03040309</v>
       </c>
       <c r="AH9" t="n">
         <v>46</v>
@@ -2099,10 +2121,10 @@
         <v>449</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -2120,10 +2142,10 @@
         <v>46</v>
       </c>
       <c r="AX9" t="n">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="AY9" t="n">
-        <v>449</v>
+        <v>485</v>
       </c>
       <c r="AZ9" t="n">
         <v>0.09523810000000001</v>
@@ -2140,11 +2162,13 @@
       <c r="BD9" t="n">
         <v>-0.00222222</v>
       </c>
-      <c r="BE9" t="inlineStr"/>
+      <c r="BE9" t="n">
+        <v>0.5</v>
+      </c>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
       <c r="BH9" t="n">
-        <v>-0.00222222</v>
+        <v>0.02320675</v>
       </c>
     </row>
     <row r="10">
@@ -2205,10 +2229,10 @@
         <v>1477.4859922</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>150.49712628</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>150.49712628</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2223,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1477.4859922</v>
+        <v>1627.98311847</v>
       </c>
       <c r="X10" t="n">
-        <v>1477.4859922</v>
+        <v>1627.98311847</v>
       </c>
       <c r="Y10" t="n">
         <v>-0.6472314300000001</v>
@@ -2243,11 +2267,13 @@
       <c r="AC10" t="n">
         <v>-0.45656246</v>
       </c>
-      <c r="AD10" t="inlineStr"/>
+      <c r="AD10" t="n">
+        <v>-0.57449794</v>
+      </c>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>-0.45656246</v>
+        <v>-0.47484153</v>
       </c>
       <c r="AH10" t="n">
         <v>45</v>
@@ -2277,10 +2303,10 @@
         <v>338</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -2298,10 +2324,10 @@
         <v>45</v>
       </c>
       <c r="AX10" t="n">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="AY10" t="n">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="AZ10" t="n">
         <v>-0.64516129</v>
@@ -2318,11 +2344,13 @@
       <c r="BD10" t="n">
         <v>-0.46728972</v>
       </c>
-      <c r="BE10" t="inlineStr"/>
+      <c r="BE10" t="n">
+        <v>-0.60606061</v>
+      </c>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="n">
-        <v>-0.46728972</v>
+        <v>-0.49095607</v>
       </c>
     </row>
     <row r="11">
@@ -2383,10 +2411,10 @@
         <v>1359.4011258</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>156.36065068</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>156.36065068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2401,10 +2429,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1359.4011258</v>
+        <v>1515.76177647</v>
       </c>
       <c r="X11" t="n">
-        <v>1359.4011258</v>
+        <v>1515.76177647</v>
       </c>
       <c r="Y11" t="n">
         <v>-0.21252538</v>
@@ -2421,11 +2449,13 @@
       <c r="AC11" t="n">
         <v>0.27923196</v>
       </c>
-      <c r="AD11" t="inlineStr"/>
+      <c r="AD11" t="n">
+        <v>1.59681255</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>0.27923196</v>
+        <v>0.34988483</v>
       </c>
       <c r="AH11" t="n">
         <v>19</v>
@@ -2455,10 +2485,10 @@
         <v>378</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2476,10 +2506,10 @@
         <v>19</v>
       </c>
       <c r="AX11" t="n">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="AY11" t="n">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="AZ11" t="n">
         <v>-0.34482759</v>
@@ -2496,11 +2526,13 @@
       <c r="BD11" t="n">
         <v>0.32631579</v>
       </c>
-      <c r="BE11" t="inlineStr"/>
+      <c r="BE11" t="n">
+        <v>1.77777778</v>
+      </c>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="n">
-        <v>0.32631579</v>
+        <v>0.41254125</v>
       </c>
     </row>
     <row r="12">
@@ -2561,10 +2593,10 @@
         <v>1328.29187133</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>108.23088789</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>108.23088789</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2579,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1328.29187133</v>
+        <v>1436.52275923</v>
       </c>
       <c r="X12" t="n">
-        <v>1328.29187133</v>
+        <v>1436.52275923</v>
       </c>
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr"/>
@@ -2621,10 +2653,10 @@
         <v>306</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -2642,10 +2674,10 @@
         <v>43</v>
       </c>
       <c r="AX12" t="n">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AY12" t="n">
-        <v>306</v>
+        <v>332</v>
       </c>
       <c r="AZ12" t="inlineStr"/>
       <c r="BA12" t="inlineStr"/>
@@ -2715,10 +2747,10 @@
         <v>1270.71531923</v>
       </c>
       <c r="Q13" t="n">
-        <v>26.06010845</v>
+        <v>66.7790279</v>
       </c>
       <c r="R13" t="n">
-        <v>26.06010845</v>
+        <v>66.7790279</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2733,10 +2765,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1296.77542768</v>
+        <v>1337.49434713</v>
       </c>
       <c r="X13" t="n">
-        <v>1296.77542768</v>
+        <v>1337.49434713</v>
       </c>
       <c r="Y13" t="n">
         <v>-0.80103697</v>
@@ -2754,12 +2786,12 @@
         <v>-0.54816311</v>
       </c>
       <c r="AD13" t="n">
-        <v>-0.85172521</v>
+        <v>-0.62004585</v>
       </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>-0.5660182499999999</v>
+        <v>-0.55239116</v>
       </c>
       <c r="AH13" t="n">
         <v>52</v>
@@ -2789,10 +2821,10 @@
         <v>400</v>
       </c>
       <c r="AQ13" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AR13" t="n">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -2810,10 +2842,10 @@
         <v>52</v>
       </c>
       <c r="AX13" t="n">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="AY13" t="n">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="AZ13" t="n">
         <v>-0.79527559</v>
@@ -2831,12 +2863,12 @@
         <v>-0.54022989</v>
       </c>
       <c r="BE13" t="n">
-        <v>-0.85454545</v>
+        <v>-0.6272727299999999</v>
       </c>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="n">
-        <v>-0.5755102</v>
+        <v>-0.55</v>
       </c>
     </row>
     <row r="14">
@@ -2844,16 +2876,16 @@
         <v>15</v>
       </c>
       <c r="B14" t="n">
-        <v>1031809</v>
+        <v>1004408</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>cascadas mall</t>
+          <t>Citymall San Pedro Sula</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2867,40 +2899,40 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>137.38563422</v>
+        <v>166.49966162</v>
       </c>
       <c r="H14" t="n">
-        <v>137.38563422</v>
+        <v>166.49966162</v>
       </c>
       <c r="I14" t="n">
-        <v>129.89335304</v>
+        <v>164.54515349</v>
       </c>
       <c r="J14" t="n">
-        <v>129.89335304</v>
+        <v>164.54515349</v>
       </c>
       <c r="K14" t="n">
-        <v>481.21619004</v>
+        <v>366.99962099</v>
       </c>
       <c r="L14" t="n">
-        <v>481.21619004</v>
+        <v>366.99962099</v>
       </c>
       <c r="M14" t="n">
-        <v>499.05107676</v>
+        <v>528.24654201</v>
       </c>
       <c r="N14" t="n">
-        <v>499.05107676</v>
+        <v>528.24654201</v>
       </c>
       <c r="O14" t="n">
-        <v>1247.54625407</v>
+        <v>1226.29097811</v>
       </c>
       <c r="P14" t="n">
-        <v>1247.54625407</v>
+        <v>1226.29097811</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>104.2811527</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>104.2811527</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2915,52 +2947,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1247.54625407</v>
+        <v>1330.57213082</v>
       </c>
       <c r="X14" t="n">
-        <v>1247.54625407</v>
+        <v>1330.57213082</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
       <c r="AA14" t="inlineStr"/>
       <c r="AB14" t="inlineStr"/>
       <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
+      <c r="AD14" t="n">
+        <v>-0.68262814</v>
+      </c>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>-0.68262814</v>
+      </c>
       <c r="AH14" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AI14" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AJ14" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="AL14" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="AM14" t="n">
-        <v>57</v>
+        <v>86</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AP14" t="n">
-        <v>157</v>
+        <v>295</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -2975,23 +3011,27 @@
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="AX14" t="n">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="AY14" t="n">
-        <v>157</v>
+        <v>334</v>
       </c>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
       <c r="BB14" t="inlineStr"/>
       <c r="BC14" t="inlineStr"/>
       <c r="BD14" t="inlineStr"/>
-      <c r="BE14" t="inlineStr"/>
+      <c r="BE14" t="n">
+        <v>-0.6031746</v>
+      </c>
       <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
+      <c r="BH14" t="n">
+        <v>-0.6031746</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -3007,7 +3047,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Berta Soy Yo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3021,40 +3061,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>166.49966162</v>
+        <v>179.97762396</v>
       </c>
       <c r="H15" t="n">
-        <v>166.49966162</v>
+        <v>179.97762396</v>
       </c>
       <c r="I15" t="n">
-        <v>164.54515349</v>
+        <v>235.9661382</v>
       </c>
       <c r="J15" t="n">
-        <v>164.54515349</v>
+        <v>235.9661382</v>
       </c>
       <c r="K15" t="n">
-        <v>366.99962099</v>
+        <v>359.54805873</v>
       </c>
       <c r="L15" t="n">
-        <v>366.99962099</v>
+        <v>359.54805873</v>
       </c>
       <c r="M15" t="n">
-        <v>528.24654201</v>
+        <v>400.87776197</v>
       </c>
       <c r="N15" t="n">
-        <v>528.24654201</v>
+        <v>400.87776197</v>
       </c>
       <c r="O15" t="n">
-        <v>1226.29097811</v>
+        <v>1176.36958287</v>
       </c>
       <c r="P15" t="n">
-        <v>1226.29097811</v>
+        <v>1176.36958287</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>122.97113673</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>122.97113673</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -3069,52 +3109,66 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1226.29097811</v>
+        <v>1299.34071961</v>
       </c>
       <c r="X15" t="n">
-        <v>1226.29097811</v>
-      </c>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
+        <v>1299.34071961</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-0.20148405</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0.03018717</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-0.29299614</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-0.43791125</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-0.29818699</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.08406618</v>
+      </c>
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
+      <c r="AG15" t="n">
+        <v>-0.28230836</v>
+      </c>
       <c r="AH15" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AI15" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AJ15" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AK15" t="n">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="AL15" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AM15" t="n">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="AN15" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AP15" t="n">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
@@ -3129,44 +3183,58 @@
         <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="AX15" t="n">
-        <v>295</v>
+        <v>378</v>
       </c>
       <c r="AY15" t="n">
-        <v>295</v>
-      </c>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
-      <c r="BC15" t="inlineStr"/>
-      <c r="BD15" t="inlineStr"/>
-      <c r="BE15" t="inlineStr"/>
+        <v>378</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>0.09677419</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>-0.26119403</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>-0.38674033</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>-0.24263039</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>0.25714286</v>
+      </c>
       <c r="BF15" t="inlineStr"/>
       <c r="BG15" t="inlineStr"/>
-      <c r="BH15" t="inlineStr"/>
+      <c r="BH15" t="n">
+        <v>-0.20588235</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>1004408</v>
+        <v>1010407</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Citymall San Pedro Sula</t>
+          <t>Citymall Tegucigalpa</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Berta Soy Yo</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -3175,40 +3243,40 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>179.97762396</v>
+        <v>134.16883958</v>
       </c>
       <c r="H16" t="n">
-        <v>179.97762396</v>
+        <v>134.16883958</v>
       </c>
       <c r="I16" t="n">
-        <v>235.9661382</v>
+        <v>140.96889913</v>
       </c>
       <c r="J16" t="n">
-        <v>235.9661382</v>
+        <v>140.96889913</v>
       </c>
       <c r="K16" t="n">
-        <v>359.54805873</v>
+        <v>422.01088116</v>
       </c>
       <c r="L16" t="n">
-        <v>359.54805873</v>
+        <v>422.01088116</v>
       </c>
       <c r="M16" t="n">
-        <v>400.87776197</v>
+        <v>447.58236258</v>
       </c>
       <c r="N16" t="n">
-        <v>400.87776197</v>
+        <v>447.58236258</v>
       </c>
       <c r="O16" t="n">
-        <v>1176.36958287</v>
+        <v>1144.73098246</v>
       </c>
       <c r="P16" t="n">
-        <v>1176.36958287</v>
+        <v>1144.73098246</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>128.14243951</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>128.14243951</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3223,64 +3291,66 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1176.36958287</v>
+        <v>1272.87342197</v>
       </c>
       <c r="X16" t="n">
-        <v>1176.36958287</v>
+        <v>1272.87342197</v>
       </c>
       <c r="Y16" t="n">
-        <v>-0.20148405</v>
+        <v>0.11442702</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.03018717</v>
+        <v>-0.08342768</v>
       </c>
       <c r="AA16" t="n">
-        <v>-0.29299614</v>
+        <v>0.2430317</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.43791125</v>
+        <v>-0.08993851999999999</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.29818699</v>
-      </c>
-      <c r="AD16" t="inlineStr"/>
+        <v>0.03347332</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.09657351</v>
+      </c>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="n">
-        <v>-0.29818699</v>
+        <v>0.01647963</v>
       </c>
       <c r="AH16" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AJ16" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="AK16" t="n">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="AL16" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AM16" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AN16" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AO16" t="n">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="AP16" t="n">
-        <v>334</v>
+        <v>272</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -3295,34 +3365,36 @@
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="AX16" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="AY16" t="n">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="AZ16" t="n">
-        <v>-0.125</v>
+        <v>-0.05</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.09677419</v>
+        <v>0.1</v>
       </c>
       <c r="BB16" t="n">
-        <v>-0.26119403</v>
+        <v>0.13461538</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0.38674033</v>
+        <v>-0.13157895</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.24263039</v>
-      </c>
-      <c r="BE16" t="inlineStr"/>
+        <v>-0.01190476</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>-0.07142857</v>
+      </c>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="n">
-        <v>-0.24263039</v>
+        <v>-0.02040816</v>
       </c>
     </row>
     <row r="17">
@@ -3330,16 +3402,16 @@
         <v>18</v>
       </c>
       <c r="B17" t="n">
-        <v>1056641</v>
+        <v>1006720</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>altara</t>
+          <t>mall premier juticalpa</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3349,44 +3421,44 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>218.90491096</v>
+        <v>70.15869821000001</v>
       </c>
       <c r="H17" t="n">
-        <v>218.90491096</v>
+        <v>70.15869821</v>
       </c>
       <c r="I17" t="n">
-        <v>235.43679225</v>
+        <v>226.80438133</v>
       </c>
       <c r="J17" t="n">
-        <v>235.43679225</v>
+        <v>226.80438133</v>
       </c>
       <c r="K17" t="n">
-        <v>298.42896064</v>
+        <v>391.91959969</v>
       </c>
       <c r="L17" t="n">
-        <v>298.42896064</v>
+        <v>391.91959969</v>
       </c>
       <c r="M17" t="n">
-        <v>384.75306986</v>
+        <v>455.92974107</v>
       </c>
       <c r="N17" t="n">
-        <v>384.75306986</v>
+        <v>455.92974107</v>
       </c>
       <c r="O17" t="n">
-        <v>1137.52373371</v>
+        <v>1144.8124203</v>
       </c>
       <c r="P17" t="n">
-        <v>1137.52373371</v>
+        <v>1144.8124203</v>
       </c>
       <c r="Q17" t="n">
-        <v>7.89947037</v>
+        <v>108.31232573</v>
       </c>
       <c r="R17" t="n">
-        <v>7.89947037</v>
+        <v>108.31232573</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3401,52 +3473,66 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1145.42320408</v>
+        <v>1253.12474603</v>
       </c>
       <c r="X17" t="n">
-        <v>1145.42320408</v>
-      </c>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
+        <v>1253.12474603</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.67108057</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>0.1357218</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.77859008</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.8428338399999999</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.70436288</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.6342390999999999</v>
+      </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
+      <c r="AG17" t="n">
+        <v>-0.69813379</v>
+      </c>
       <c r="AH17" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="AJ17" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AK17" t="n">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="AL17" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AM17" t="n">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="AN17" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AO17" t="n">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="AP17" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AQ17" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AR17" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -3461,39 +3547,53 @@
         <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="AY17" t="n">
-        <v>287</v>
-      </c>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
-      <c r="BC17" t="inlineStr"/>
-      <c r="BD17" t="inlineStr"/>
-      <c r="BE17" t="inlineStr"/>
+        <v>316</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>-0.67272727</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>-0.8</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>-0.85271318</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>-0.71468927</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>-0.65116279</v>
+      </c>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
-      <c r="BH17" t="inlineStr"/>
+      <c r="BH17" t="n">
+        <v>-0.70780856</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>19</v>
       </c>
       <c r="B18" t="n">
-        <v>1006720</v>
+        <v>1031809</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>mall premier juticalpa</t>
+          <t>cascadas mall</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3507,34 +3607,34 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>70.15869821000001</v>
+        <v>137.38563422</v>
       </c>
       <c r="H18" t="n">
-        <v>70.15869821</v>
+        <v>137.38563422</v>
       </c>
       <c r="I18" t="n">
-        <v>226.80438133</v>
+        <v>129.89335304</v>
       </c>
       <c r="J18" t="n">
-        <v>226.80438133</v>
+        <v>129.89335304</v>
       </c>
       <c r="K18" t="n">
-        <v>391.91959969</v>
+        <v>481.21619004</v>
       </c>
       <c r="L18" t="n">
-        <v>391.91959969</v>
+        <v>481.21619004</v>
       </c>
       <c r="M18" t="n">
-        <v>455.92974107</v>
+        <v>499.05107676</v>
       </c>
       <c r="N18" t="n">
-        <v>455.92974107</v>
+        <v>499.05107676</v>
       </c>
       <c r="O18" t="n">
-        <v>1144.8124203</v>
+        <v>1247.54625407</v>
       </c>
       <c r="P18" t="n">
-        <v>1144.8124203</v>
+        <v>1247.54625407</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -3555,58 +3655,46 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>1144.8124203</v>
+        <v>1247.54625407</v>
       </c>
       <c r="X18" t="n">
-        <v>1144.8124203</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>-0.67108057</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0.1357218</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>-0.77859008</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>-0.8428338399999999</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>-0.70436288</v>
-      </c>
+        <v>1247.54625407</v>
+      </c>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="n">
-        <v>-0.70436288</v>
-      </c>
+      <c r="AG18" t="inlineStr"/>
       <c r="AH18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AJ18" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="AL18" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="AM18" t="n">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="AN18" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AO18" t="n">
-        <v>111</v>
+        <v>60</v>
       </c>
       <c r="AP18" t="n">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="AQ18" t="n">
         <v>0</v>
@@ -3627,98 +3715,86 @@
         <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AX18" t="n">
-        <v>286</v>
+        <v>157</v>
       </c>
       <c r="AY18" t="n">
-        <v>286</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>-0.67272727</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>-0.85271318</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>-0.71468927</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="AZ18" t="inlineStr"/>
+      <c r="BA18" t="inlineStr"/>
+      <c r="BB18" t="inlineStr"/>
+      <c r="BC18" t="inlineStr"/>
+      <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="inlineStr"/>
       <c r="BF18" t="inlineStr"/>
       <c r="BG18" t="inlineStr"/>
-      <c r="BH18" t="n">
-        <v>-0.71468927</v>
-      </c>
+      <c r="BH18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>1010407</v>
+        <v>1056641</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Citymall Tegucigalpa</t>
+          <t>altara</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>134.16883958</v>
+        <v>218.90491096</v>
       </c>
       <c r="H19" t="n">
-        <v>134.16883958</v>
+        <v>218.90491096</v>
       </c>
       <c r="I19" t="n">
-        <v>140.96889913</v>
+        <v>235.43679225</v>
       </c>
       <c r="J19" t="n">
-        <v>140.96889913</v>
+        <v>235.43679225</v>
       </c>
       <c r="K19" t="n">
-        <v>422.01088116</v>
+        <v>298.42896064</v>
       </c>
       <c r="L19" t="n">
-        <v>422.01088116</v>
+        <v>298.42896064</v>
       </c>
       <c r="M19" t="n">
-        <v>447.58236258</v>
+        <v>384.75306986</v>
       </c>
       <c r="N19" t="n">
-        <v>447.58236258</v>
+        <v>384.75306986</v>
       </c>
       <c r="O19" t="n">
-        <v>1144.73098246</v>
+        <v>1137.52373371</v>
       </c>
       <c r="P19" t="n">
-        <v>1144.73098246</v>
+        <v>1137.52373371</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>53.58609799000001</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>53.58609799</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3733,64 +3809,52 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.73098246</v>
+        <v>1191.1098317</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.73098246</v>
-      </c>
-      <c r="Y19" t="n">
-        <v>0.11442702</v>
-      </c>
-      <c r="Z19" t="n">
-        <v>-0.08342768</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>0.2430317</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>-0.08993851999999999</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>0.03347332</v>
-      </c>
+        <v>1191.1098317</v>
+      </c>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="n">
-        <v>0.03347332</v>
-      </c>
+      <c r="AG19" t="inlineStr"/>
       <c r="AH19" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AJ19" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AK19" t="n">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="AL19" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AO19" t="n">
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AP19" t="n">
-        <v>272</v>
+        <v>285</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
@@ -3805,39 +3869,27 @@
         <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AX19" t="n">
-        <v>272</v>
+        <v>298</v>
       </c>
       <c r="AY19" t="n">
-        <v>272</v>
-      </c>
-      <c r="AZ19" t="n">
-        <v>-0.05</v>
-      </c>
-      <c r="BA19" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="BB19" t="n">
-        <v>0.13461538</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>-0.13157895</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>-0.01190476</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="AZ19" t="inlineStr"/>
+      <c r="BA19" t="inlineStr"/>
+      <c r="BB19" t="inlineStr"/>
+      <c r="BC19" t="inlineStr"/>
+      <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="inlineStr"/>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
-      <c r="BH19" t="n">
-        <v>-0.01190476</v>
-      </c>
+      <c r="BH19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" t="n">
         <v>1004407</v>
@@ -3893,10 +3945,10 @@
         <v>1086.38077089</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>74.51562259000001</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>74.51562259000001</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3911,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1086.38077089</v>
+        <v>1160.89639348</v>
       </c>
       <c r="X20" t="n">
-        <v>1086.38077089</v>
+        <v>1160.89639348</v>
       </c>
       <c r="Y20" t="n">
         <v>0.51714595</v>
@@ -3931,11 +3983,13 @@
       <c r="AC20" t="n">
         <v>0.4797898</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>2.73788643</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="n">
-        <v>0.4797898</v>
+        <v>0.53948591</v>
       </c>
       <c r="AH20" t="n">
         <v>38</v>
@@ -3965,10 +4019,10 @@
         <v>299</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -3986,10 +4040,10 @@
         <v>38</v>
       </c>
       <c r="AX20" t="n">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="AY20" t="n">
-        <v>299</v>
+        <v>320</v>
       </c>
       <c r="AZ20" t="n">
         <v>0.65217391</v>
@@ -4006,16 +4060,18 @@
       <c r="BD20" t="n">
         <v>0.48019802</v>
       </c>
-      <c r="BE20" t="inlineStr"/>
+      <c r="BE20" t="n">
+        <v>1.33333333</v>
+      </c>
       <c r="BF20" t="inlineStr"/>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="n">
-        <v>0.48019802</v>
+        <v>0.51658768</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B21" t="n">
         <v>1004410</v>
@@ -4071,10 +4127,10 @@
         <v>1014.63403482</v>
       </c>
       <c r="Q21" t="n">
-        <v>41.94048704</v>
+        <v>89.54090386999999</v>
       </c>
       <c r="R21" t="n">
-        <v>41.94048704</v>
+        <v>89.54090386999999</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -4089,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>1056.57452186</v>
+        <v>1104.17493869</v>
       </c>
       <c r="X21" t="n">
-        <v>1056.57452186</v>
+        <v>1104.17493869</v>
       </c>
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
@@ -4131,10 +4187,10 @@
         <v>278</v>
       </c>
       <c r="AQ21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AR21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
@@ -4152,10 +4208,10 @@
         <v>41</v>
       </c>
       <c r="AX21" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AY21" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="AZ21" t="inlineStr"/>
       <c r="BA21" t="inlineStr"/>
@@ -4225,10 +4281,10 @@
         <v>1003.31417521</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>76.95875776</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>76.95875776</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -4243,10 +4299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1003.31417521</v>
+        <v>1080.27293297</v>
       </c>
       <c r="X22" t="n">
-        <v>1003.31417521</v>
+        <v>1080.27293297</v>
       </c>
       <c r="Y22" t="n">
         <v>-0.05288234</v>
@@ -4263,11 +4319,13 @@
       <c r="AC22" t="n">
         <v>0.52275784</v>
       </c>
-      <c r="AD22" t="inlineStr"/>
+      <c r="AD22" t="n">
+        <v>3.29912645</v>
+      </c>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="n">
-        <v>0.52275784</v>
+        <v>0.59619349</v>
       </c>
       <c r="AH22" t="n">
         <v>16</v>
@@ -4297,10 +4355,10 @@
         <v>259</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
@@ -4318,10 +4376,10 @@
         <v>16</v>
       </c>
       <c r="AX22" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="AY22" t="n">
-        <v>259</v>
+        <v>282</v>
       </c>
       <c r="AZ22" t="n">
         <v>-0.05882353</v>
@@ -4338,11 +4396,13 @@
       <c r="BD22" t="n">
         <v>0.49710983</v>
       </c>
-      <c r="BE22" t="inlineStr"/>
+      <c r="BE22" t="n">
+        <v>2.28571429</v>
+      </c>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="n">
-        <v>0.49710983</v>
+        <v>0.56666667</v>
       </c>
     </row>
     <row r="23">
@@ -4350,21 +4410,21 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>1010471</v>
+        <v>1006720</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>mall premier tegucigalpa</t>
+          <t>mall premier juticalpa</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -4373,40 +4433,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>97.80684452</v>
+        <v>261.2933061</v>
       </c>
       <c r="H23" t="n">
-        <v>97.80684452</v>
+        <v>261.2933061</v>
       </c>
       <c r="I23" t="n">
-        <v>267.03467374</v>
+        <v>166.25534811</v>
       </c>
       <c r="J23" t="n">
-        <v>267.03467374</v>
+        <v>166.25534811</v>
       </c>
       <c r="K23" t="n">
-        <v>255.87768982</v>
+        <v>228.84032731</v>
       </c>
       <c r="L23" t="n">
-        <v>255.87768982</v>
+        <v>228.84032731</v>
       </c>
       <c r="M23" t="n">
-        <v>382.10634011</v>
+        <v>312.55842569</v>
       </c>
       <c r="N23" t="n">
-        <v>382.10634011</v>
+        <v>312.55842569</v>
       </c>
       <c r="O23" t="n">
-        <v>1002.82554818</v>
+        <v>968.9474071899999</v>
       </c>
       <c r="P23" t="n">
-        <v>1002.82554818</v>
+        <v>968.94740719</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>102.28592565</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.28592565</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -4421,64 +4481,52 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1002.82554818</v>
+        <v>1071.23333285</v>
       </c>
       <c r="X23" t="n">
-        <v>1002.82554818</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>-0.27413849</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0.10072212</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>-0.5044617300000001</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0.10507375</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>-0.19093242</v>
-      </c>
+        <v>1071.23333285</v>
+      </c>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="n">
-        <v>-0.19093242</v>
-      </c>
+      <c r="AG23" t="inlineStr"/>
       <c r="AH23" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AI23" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="n">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="AL23" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="AM23" t="n">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="AN23" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AO23" t="n">
-        <v>48</v>
+        <v>75</v>
       </c>
       <c r="AP23" t="n">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -4493,35 +4541,23 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="AX23" t="n">
-        <v>135</v>
+        <v>255</v>
       </c>
       <c r="AY23" t="n">
-        <v>135</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>-0.28</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0.06451613</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>-0.47058824</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0.06666667</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>-0.20118343</v>
-      </c>
+        <v>255</v>
+      </c>
+      <c r="AZ23" t="inlineStr"/>
+      <c r="BA23" t="inlineStr"/>
+      <c r="BB23" t="inlineStr"/>
+      <c r="BC23" t="inlineStr"/>
+      <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="inlineStr"/>
       <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="inlineStr"/>
-      <c r="BH23" t="n">
-        <v>-0.20118343</v>
-      </c>
+      <c r="BH23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -4581,10 +4617,10 @@
         <v>999.44587787</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>71.1766712</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>71.1766712</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -4599,10 +4635,10 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>999.44587787</v>
+        <v>1070.62254906</v>
       </c>
       <c r="X24" t="n">
-        <v>999.44587787</v>
+        <v>1070.62254906</v>
       </c>
       <c r="Y24" t="n">
         <v>-0.89910905</v>
@@ -4619,11 +4655,13 @@
       <c r="AC24" t="n">
         <v>-0.73875704</v>
       </c>
-      <c r="AD24" t="inlineStr"/>
+      <c r="AD24" t="n">
+        <v>-0.70567055</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="n">
-        <v>-0.73875704</v>
+        <v>-0.73678996</v>
       </c>
       <c r="AH24" t="n">
         <v>37</v>
@@ -4653,10 +4691,10 @@
         <v>300</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -4674,10 +4712,10 @@
         <v>37</v>
       </c>
       <c r="AX24" t="n">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AY24" t="n">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="AZ24" t="n">
         <v>-0.86642599</v>
@@ -4694,33 +4732,35 @@
       <c r="BD24" t="n">
         <v>-0.71455756</v>
       </c>
-      <c r="BE24" t="inlineStr"/>
+      <c r="BE24" t="n">
+        <v>-0.6056338</v>
+      </c>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="n">
-        <v>-0.71455756</v>
+        <v>-0.7076648800000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>1006720</v>
+        <v>1010471</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>mall premier juticalpa</t>
+          <t>mall premier tegucigalpa</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -4729,34 +4769,34 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>261.2933061</v>
+        <v>97.80684452</v>
       </c>
       <c r="H25" t="n">
-        <v>261.2933061</v>
+        <v>97.80684452</v>
       </c>
       <c r="I25" t="n">
-        <v>166.25534811</v>
+        <v>267.03467374</v>
       </c>
       <c r="J25" t="n">
-        <v>166.25534811</v>
+        <v>267.03467374</v>
       </c>
       <c r="K25" t="n">
-        <v>228.84032731</v>
+        <v>255.87768982</v>
       </c>
       <c r="L25" t="n">
-        <v>228.84032731</v>
+        <v>255.87768982</v>
       </c>
       <c r="M25" t="n">
-        <v>312.55842569</v>
+        <v>382.10634011</v>
       </c>
       <c r="N25" t="n">
-        <v>312.55842569</v>
+        <v>382.10634011</v>
       </c>
       <c r="O25" t="n">
-        <v>968.9474071899999</v>
+        <v>1002.82554818</v>
       </c>
       <c r="P25" t="n">
-        <v>968.94740719</v>
+        <v>1002.82554818</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -4777,46 +4817,58 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>968.9474071899999</v>
+        <v>1002.82554818</v>
       </c>
       <c r="X25" t="n">
-        <v>968.94740719</v>
-      </c>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
+        <v>1002.82554818</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.27413849</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.10072212</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.5044617300000001</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.10507375</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>-0.19093242</v>
+      </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
+      <c r="AG25" t="n">
+        <v>-0.19093242</v>
+      </c>
       <c r="AH25" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="AI25" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AK25" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AL25" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AM25" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AN25" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AO25" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AP25" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="AQ25" t="n">
         <v>0</v>
@@ -4837,27 +4889,39 @@
         <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="AX25" t="n">
-        <v>230</v>
+        <v>135</v>
       </c>
       <c r="AY25" t="n">
-        <v>230</v>
-      </c>
-      <c r="AZ25" t="inlineStr"/>
-      <c r="BA25" t="inlineStr"/>
-      <c r="BB25" t="inlineStr"/>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
+        <v>135</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>-0.28</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.06451613</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>-0.47058824</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.06666667</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>-0.20118343</v>
+      </c>
       <c r="BE25" t="inlineStr"/>
       <c r="BF25" t="inlineStr"/>
       <c r="BG25" t="inlineStr"/>
-      <c r="BH25" t="inlineStr"/>
+      <c r="BH25" t="n">
+        <v>-0.20118343</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26" t="n">
         <v>1006720</v>
@@ -4913,10 +4977,10 @@
         <v>940.40344467</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>48.86270334</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>48.86270334</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -4931,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>940.40344467</v>
+        <v>989.2661480100001</v>
       </c>
       <c r="X26" t="n">
-        <v>940.40344467</v>
+        <v>989.2661480100001</v>
       </c>
       <c r="Y26" t="n">
         <v>-0.87875718</v>
@@ -4951,11 +5015,13 @@
       <c r="AC26" t="n">
         <v>-0.69955492</v>
       </c>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>-0.71370064</v>
+      </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
-        <v>-0.69955492</v>
+        <v>-0.7002863499999999</v>
       </c>
       <c r="AH26" t="n">
         <v>24</v>
@@ -4985,10 +5051,10 @@
         <v>248</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
@@ -5006,10 +5072,10 @@
         <v>24</v>
       </c>
       <c r="AX26" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AY26" t="n">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="AZ26" t="n">
         <v>-0.8490566000000001</v>
@@ -5026,16 +5092,18 @@
       <c r="BD26" t="n">
         <v>-0.68527919</v>
       </c>
-      <c r="BE26" t="inlineStr"/>
+      <c r="BE26" t="n">
+        <v>-0.73469388</v>
+      </c>
       <c r="BF26" t="inlineStr"/>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="n">
-        <v>-0.68527919</v>
+        <v>-0.68817204</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27" t="n">
         <v>1004407</v>
@@ -5091,10 +5159,10 @@
         <v>933.27763377</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>49.67708173</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>49.67708173</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -5109,10 +5177,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>933.27763377</v>
+        <v>982.9547154899999</v>
       </c>
       <c r="X27" t="n">
-        <v>933.27763377</v>
+        <v>982.95471549</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.03727297</v>
@@ -5129,11 +5197,13 @@
       <c r="AC27" t="n">
         <v>0.09262171</v>
       </c>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>-0.49543682</v>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
-        <v>0.09262171</v>
+        <v>0.03184436</v>
       </c>
       <c r="AH27" t="n">
         <v>37</v>
@@ -5163,10 +5233,10 @@
         <v>247</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
@@ -5184,10 +5254,10 @@
         <v>37</v>
       </c>
       <c r="AX27" t="n">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AY27" t="n">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AZ27" t="n">
         <v>-0.13953488</v>
@@ -5204,16 +5274,18 @@
       <c r="BD27" t="n">
         <v>0.06465517</v>
       </c>
-      <c r="BE27" t="inlineStr"/>
+      <c r="BE27" t="n">
+        <v>-0.5</v>
+      </c>
       <c r="BF27" t="inlineStr"/>
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="n">
-        <v>0.06465517</v>
+        <v>-0.00378788</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28" t="n">
         <v>1004410</v>
@@ -5398,63 +5470,63 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>1010949</v>
+        <v>1006720</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>cascadas mall</t>
+          <t>mall premier juticalpa</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>82.25221729</v>
+        <v>60.26400078</v>
       </c>
       <c r="H29" t="n">
-        <v>82.25221729</v>
+        <v>60.26400078</v>
       </c>
       <c r="I29" t="n">
-        <v>136.00119096</v>
+        <v>50.89864931</v>
       </c>
       <c r="J29" t="n">
-        <v>136.00119096</v>
+        <v>50.89864931</v>
       </c>
       <c r="K29" t="n">
-        <v>360.36243712</v>
+        <v>343.26049095</v>
       </c>
       <c r="L29" t="n">
-        <v>360.36243712</v>
+        <v>343.26049095</v>
       </c>
       <c r="M29" t="n">
-        <v>220.28935422</v>
+        <v>378.68595087</v>
       </c>
       <c r="N29" t="n">
-        <v>220.28935422</v>
+        <v>378.68595087</v>
       </c>
       <c r="O29" t="n">
-        <v>798.90519958</v>
+        <v>833.10909192</v>
       </c>
       <c r="P29" t="n">
-        <v>798.90519958</v>
+        <v>833.10909192</v>
       </c>
       <c r="Q29" t="n">
-        <v>57.00648723</v>
+        <v>78.58751454</v>
       </c>
       <c r="R29" t="n">
-        <v>57.00648723</v>
+        <v>78.58751454</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -5469,66 +5541,66 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>855.91168681</v>
+        <v>911.69660646</v>
       </c>
       <c r="X29" t="n">
-        <v>855.91168681</v>
+        <v>911.69660646</v>
       </c>
       <c r="Y29" t="n">
-        <v>-0.7398034999999999</v>
+        <v>-0.49616831</v>
       </c>
       <c r="Z29" t="n">
-        <v>-0.48412729</v>
+        <v>-0.65910939</v>
       </c>
       <c r="AA29" t="n">
-        <v>-0.4106743</v>
+        <v>0.99461141</v>
       </c>
       <c r="AB29" t="n">
-        <v>-0.47684786</v>
+        <v>0.70163619</v>
       </c>
       <c r="AC29" t="n">
-        <v>-0.5044973</v>
+        <v>0.25551747</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.5168287</v>
+        <v>0.85735561</v>
       </c>
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="n">
-        <v>-0.50533815</v>
+        <v>0.29159307</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AI29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AJ29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK29" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AL29" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="AM29" t="n">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="AN29" t="n">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="AO29" t="n">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="AP29" t="n">
-        <v>98</v>
+        <v>226</v>
       </c>
       <c r="AQ29" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AR29" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="AS29" t="n">
         <v>0</v>
@@ -5543,36 +5615,36 @@
         <v>0</v>
       </c>
       <c r="AW29" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="AX29" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="AY29" t="n">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-0.73684211</v>
+        <v>-0.5</v>
       </c>
       <c r="BA29" t="n">
-        <v>-0.5</v>
+        <v>-0.7254902</v>
       </c>
       <c r="BB29" t="n">
-        <v>-0.43421053</v>
+        <v>0.8</v>
       </c>
       <c r="BC29" t="n">
-        <v>-0.43137255</v>
+        <v>0.59375</v>
       </c>
       <c r="BD29" t="n">
-        <v>-0.5025380699999999</v>
+        <v>0.10243902</v>
       </c>
       <c r="BE29" t="n">
-        <v>-0.42857143</v>
+        <v>1.18181818</v>
       </c>
       <c r="BF29" t="inlineStr"/>
       <c r="BG29" t="inlineStr"/>
       <c r="BH29" t="n">
-        <v>-0.49763033</v>
+        <v>0.15740741</v>
       </c>
     </row>
     <row r="30">
@@ -5580,11 +5652,11 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>1056641</v>
+        <v>1004410</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>altara</t>
+          <t>cascadas mall</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5594,7 +5666,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -5603,46 +5675,46 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>95.81161745999999</v>
+        <v>134.29099634</v>
       </c>
       <c r="H30" t="n">
-        <v>95.81161745999999</v>
+        <v>134.29099634</v>
       </c>
       <c r="I30" t="n">
-        <v>175.25422931</v>
+        <v>225.70497051</v>
       </c>
       <c r="J30" t="n">
-        <v>175.25422931</v>
+        <v>225.70497051</v>
       </c>
       <c r="K30" t="n">
-        <v>299.77268498</v>
+        <v>187.55134299</v>
       </c>
       <c r="L30" t="n">
-        <v>299.77268498</v>
+        <v>187.55134299</v>
       </c>
       <c r="M30" t="n">
-        <v>251.76507895</v>
+        <v>274.56767384</v>
       </c>
       <c r="N30" t="n">
-        <v>251.76507895</v>
+        <v>274.56767384</v>
       </c>
       <c r="O30" t="n">
-        <v>822.6036107</v>
+        <v>822.11498366</v>
       </c>
       <c r="P30" t="n">
-        <v>822.6036107</v>
+        <v>822.11498366</v>
       </c>
       <c r="Q30" t="n">
-        <v>21.41815163</v>
+        <v>79.64620644</v>
       </c>
       <c r="R30" t="n">
-        <v>21.41815163</v>
+        <v>79.64620644</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>6.84077847</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>6.84077847</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -5651,72 +5723,72 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>844.02176233</v>
+        <v>908.6019685700001</v>
       </c>
       <c r="X30" t="n">
-        <v>844.02176233</v>
+        <v>908.6019685700001</v>
       </c>
       <c r="Y30" t="n">
-        <v>-0.56226553</v>
+        <v>-0.70245306</v>
       </c>
       <c r="Z30" t="n">
-        <v>-0.41479701</v>
+        <v>-0.39097955</v>
       </c>
       <c r="AA30" t="n">
-        <v>-0.25767748</v>
+        <v>-0.77429375</v>
       </c>
       <c r="AB30" t="n">
-        <v>-0.62561042</v>
+        <v>-0.5085121500000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.48414967</v>
+        <v>-0.60682169</v>
       </c>
       <c r="AD30" t="n">
-        <v>-0.87296099</v>
+        <v>-0.7848480799999999</v>
       </c>
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="n">
-        <v>-0.52132628</v>
+        <v>-0.62287254</v>
       </c>
       <c r="AH30" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AI30" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AJ30" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AK30" t="n">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="AL30" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AM30" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="AN30" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AO30" t="n">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="AP30" t="n">
-        <v>216</v>
+        <v>230</v>
       </c>
       <c r="AQ30" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AR30" t="n">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="AS30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU30" t="n">
         <v>0</v>
@@ -5725,36 +5797,36 @@
         <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="AX30" t="n">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="AY30" t="n">
-        <v>222</v>
+        <v>273</v>
       </c>
       <c r="AZ30" t="n">
-        <v>-0.57627119</v>
+        <v>-0.71014493</v>
       </c>
       <c r="BA30" t="n">
-        <v>-0.43209877</v>
+        <v>-0.3968254</v>
       </c>
       <c r="BB30" t="n">
-        <v>-0.26415094</v>
+        <v>-0.75229358</v>
       </c>
       <c r="BC30" t="n">
-        <v>-0.61714286</v>
+        <v>-0.51282051</v>
       </c>
       <c r="BD30" t="n">
-        <v>-0.48693587</v>
+        <v>-0.60335196</v>
       </c>
       <c r="BE30" t="n">
-        <v>-0.86956522</v>
+        <v>-0.61904762</v>
       </c>
       <c r="BF30" t="inlineStr"/>
       <c r="BG30" t="inlineStr"/>
       <c r="BH30" t="n">
-        <v>-0.52462527</v>
+        <v>-0.605</v>
       </c>
     </row>
     <row r="31">
@@ -5762,7 +5834,7 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>1004410</v>
+        <v>1010949</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -5785,46 +5857,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>134.29099634</v>
+        <v>82.25221729</v>
       </c>
       <c r="H31" t="n">
-        <v>134.29099634</v>
+        <v>82.25221729</v>
       </c>
       <c r="I31" t="n">
-        <v>225.70497051</v>
+        <v>136.00119096</v>
       </c>
       <c r="J31" t="n">
-        <v>225.70497051</v>
+        <v>136.00119096</v>
       </c>
       <c r="K31" t="n">
-        <v>187.55134299</v>
+        <v>360.36243712</v>
       </c>
       <c r="L31" t="n">
-        <v>187.55134299</v>
+        <v>360.36243712</v>
       </c>
       <c r="M31" t="n">
-        <v>274.56767384</v>
+        <v>220.28935422</v>
       </c>
       <c r="N31" t="n">
-        <v>274.56767384</v>
+        <v>220.28935422</v>
       </c>
       <c r="O31" t="n">
-        <v>822.11498366</v>
+        <v>798.90519958</v>
       </c>
       <c r="P31" t="n">
-        <v>822.11498366</v>
+        <v>798.90519958</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.49116238</v>
+        <v>92.83913634</v>
       </c>
       <c r="R31" t="n">
-        <v>16.49116238</v>
+        <v>92.83913634</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>13.43724342</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>13.43724342</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -5833,110 +5905,114 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>838.60614604</v>
+        <v>905.18157934</v>
       </c>
       <c r="X31" t="n">
-        <v>838.60614604</v>
+        <v>905.18157934</v>
       </c>
       <c r="Y31" t="n">
-        <v>-0.70245306</v>
+        <v>-0.7398034999999999</v>
       </c>
       <c r="Z31" t="n">
-        <v>-0.39097955</v>
+        <v>-0.48412729</v>
       </c>
       <c r="AA31" t="n">
-        <v>-0.77429375</v>
+        <v>-0.4106743</v>
       </c>
       <c r="AB31" t="n">
-        <v>-0.5085121500000001</v>
+        <v>-0.47684786</v>
       </c>
       <c r="AC31" t="n">
-        <v>-0.60682169</v>
+        <v>-0.5044973</v>
       </c>
       <c r="AD31" t="n">
-        <v>-0.92828269</v>
-      </c>
-      <c r="AE31" t="inlineStr"/>
+        <v>-0.21312103</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.97210455</v>
+      </c>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="n">
-        <v>-0.6358046000000001</v>
+        <v>-0.5907853</v>
       </c>
       <c r="AH31" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AI31" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AJ31" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="AL31" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AM31" t="n">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="AN31" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="AO31" t="n">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="AP31" t="n">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="AQ31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
         <v>10</v>
       </c>
-      <c r="AR31" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW31" t="n">
-        <v>38</v>
-      </c>
       <c r="AX31" t="n">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="AY31" t="n">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="AZ31" t="n">
-        <v>-0.71014493</v>
+        <v>-0.73684211</v>
       </c>
       <c r="BA31" t="n">
-        <v>-0.3968254</v>
+        <v>-0.5</v>
       </c>
       <c r="BB31" t="n">
-        <v>-0.75229358</v>
+        <v>-0.43421053</v>
       </c>
       <c r="BC31" t="n">
-        <v>-0.51282051</v>
+        <v>-0.43137255</v>
       </c>
       <c r="BD31" t="n">
-        <v>-0.60335196</v>
+        <v>-0.5025380699999999</v>
       </c>
       <c r="BE31" t="n">
-        <v>-0.85714286</v>
-      </c>
-      <c r="BF31" t="inlineStr"/>
+        <v>-0.14285714</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>-0.96610169</v>
+      </c>
       <c r="BG31" t="inlineStr"/>
       <c r="BH31" t="n">
-        <v>-0.63</v>
+        <v>-0.58518519</v>
       </c>
     </row>
     <row r="32">
@@ -5944,16 +6020,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>1006720</v>
+        <v>1056641</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>mall premier juticalpa</t>
+          <t>altara</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5963,50 +6039,50 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>60.26400078</v>
+        <v>95.81161745999999</v>
       </c>
       <c r="H32" t="n">
-        <v>60.26400078</v>
+        <v>95.81161745999999</v>
       </c>
       <c r="I32" t="n">
-        <v>50.89864931</v>
+        <v>175.25422931</v>
       </c>
       <c r="J32" t="n">
-        <v>50.89864931</v>
+        <v>175.25422931</v>
       </c>
       <c r="K32" t="n">
-        <v>343.26049095</v>
+        <v>299.77268498</v>
       </c>
       <c r="L32" t="n">
-        <v>343.26049095</v>
+        <v>299.77268498</v>
       </c>
       <c r="M32" t="n">
-        <v>378.68595087</v>
+        <v>251.76507895</v>
       </c>
       <c r="N32" t="n">
-        <v>378.68595087</v>
+        <v>251.76507895</v>
       </c>
       <c r="O32" t="n">
-        <v>833.10909192</v>
+        <v>822.6036107</v>
       </c>
       <c r="P32" t="n">
-        <v>833.10909192</v>
+        <v>822.6036107</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>58.26877373</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>58.26877373</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.84077847</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.84077847</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -6015,70 +6091,74 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>833.10909192</v>
+        <v>887.7131629</v>
       </c>
       <c r="X32" t="n">
-        <v>833.10909192</v>
+        <v>887.7131629</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.49616831</v>
+        <v>-0.56226553</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.65910939</v>
+        <v>-0.41479701</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.99461141</v>
+        <v>-0.25767748</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.70163619</v>
+        <v>-0.62561042</v>
       </c>
       <c r="AC32" t="n">
-        <v>0.25551747</v>
-      </c>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
+        <v>-0.48414967</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.65438628</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>-0.94483477</v>
+      </c>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="n">
-        <v>0.25551747</v>
+        <v>-0.52962757</v>
       </c>
       <c r="AH32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AJ32" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AK32" t="n">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="AL32" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AM32" t="n">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="AN32" t="n">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="AO32" t="n">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="AP32" t="n">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AS32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -6087,39 +6167,43 @@
         <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AX32" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AY32" t="n">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="AZ32" t="n">
-        <v>-0.5</v>
+        <v>-0.57627119</v>
       </c>
       <c r="BA32" t="n">
-        <v>-0.7254902</v>
+        <v>-0.43209877</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.8</v>
+        <v>-0.26415094</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.59375</v>
+        <v>-0.61714286</v>
       </c>
       <c r="BD32" t="n">
-        <v>0.10243902</v>
-      </c>
-      <c r="BE32" t="inlineStr"/>
-      <c r="BF32" t="inlineStr"/>
+        <v>-0.48693587</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>-0.63043478</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>-0.96153846</v>
+      </c>
       <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="n">
-        <v>0.10243902</v>
+        <v>-0.54720617</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
         <v>1010407</v>
@@ -6175,10 +6259,10 @@
         <v>745.0747880599999</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>62.58497919</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>62.58497919</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -6193,10 +6277,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>745.0747880600001</v>
+        <v>807.65976726</v>
       </c>
       <c r="X33" t="n">
-        <v>745.0747880599999</v>
+        <v>807.65976726</v>
       </c>
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
@@ -6235,10 +6319,10 @@
         <v>168</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
@@ -6256,10 +6340,10 @@
         <v>18</v>
       </c>
       <c r="AX33" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AY33" t="n">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="AZ33" t="inlineStr"/>
       <c r="BA33" t="inlineStr"/>
@@ -6273,7 +6357,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34" t="n">
         <v>1004408</v>
@@ -6329,10 +6413,10 @@
         <v>690.18568465</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>48.04832495</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>48.04832495</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -6347,10 +6431,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>690.18568465</v>
+        <v>738.2340096</v>
       </c>
       <c r="X34" t="n">
-        <v>690.18568465</v>
+        <v>738.2340096</v>
       </c>
       <c r="Y34" t="n">
         <v>0.847732</v>
@@ -6363,11 +6447,13 @@
       <c r="AC34" t="n">
         <v>0.3836269</v>
       </c>
-      <c r="AD34" t="inlineStr"/>
+      <c r="AD34" t="n">
+        <v>0.34205535</v>
+      </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="n">
-        <v>0.3836269</v>
+        <v>0.37463846</v>
       </c>
       <c r="AH34" t="n">
         <v>30</v>
@@ -6397,10 +6483,10 @@
         <v>197</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS34" t="n">
         <v>0</v>
@@ -6418,10 +6504,10 @@
         <v>30</v>
       </c>
       <c r="AX34" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AY34" t="n">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="AZ34" t="n">
         <v>0.875</v>
@@ -6434,11 +6520,13 @@
       <c r="BD34" t="n">
         <v>0.43589744</v>
       </c>
-      <c r="BE34" t="inlineStr"/>
+      <c r="BE34" t="n">
+        <v>0.46153846</v>
+      </c>
       <c r="BF34" t="inlineStr"/>
       <c r="BG34" t="inlineStr"/>
       <c r="BH34" t="n">
-        <v>0.43589744</v>
+        <v>0.44230769</v>
       </c>
     </row>
     <row r="35">
@@ -6446,7 +6534,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="n">
-        <v>1010949</v>
+        <v>1004410</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -6455,7 +6543,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Berta Soy Yo</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -6469,40 +6557,40 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>162.87567779</v>
+        <v>100.98292023</v>
       </c>
       <c r="H35" t="n">
-        <v>162.87567779</v>
+        <v>100.98292023</v>
       </c>
       <c r="I35" t="n">
-        <v>99.35416345</v>
+        <v>72.88686581</v>
       </c>
       <c r="J35" t="n">
-        <v>99.35416345</v>
+        <v>72.88686581</v>
       </c>
       <c r="K35" t="n">
-        <v>106.27637976</v>
+        <v>229.85830029</v>
       </c>
       <c r="L35" t="n">
-        <v>106.27637976</v>
+        <v>229.85830029</v>
       </c>
       <c r="M35" t="n">
-        <v>277.29584145</v>
+        <v>195.20649984</v>
       </c>
       <c r="N35" t="n">
-        <v>277.29584145</v>
+        <v>195.20649984</v>
       </c>
       <c r="O35" t="n">
-        <v>645.80206246</v>
+        <v>598.93458617</v>
       </c>
       <c r="P35" t="n">
-        <v>645.80206246</v>
+        <v>598.93458617</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>138.07785585</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>138.07785585</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -6517,52 +6605,66 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>645.80206246</v>
+        <v>737.01244202</v>
       </c>
       <c r="X35" t="n">
-        <v>645.80206246</v>
-      </c>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
+        <v>737.01244202</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.5790876700000001</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>-0.65029667</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.38655532</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.35195866</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.46726591</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.44175818</v>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
+      <c r="AG35" t="n">
+        <v>-0.39590928</v>
+      </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AI35" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AJ35" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AK35" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="AL35" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="AM35" t="n">
-        <v>14</v>
+        <v>67</v>
       </c>
       <c r="AN35" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AO35" t="n">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="AP35" t="n">
-        <v>79</v>
+        <v>171</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AS35" t="n">
         <v>0</v>
@@ -6577,39 +6679,53 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="AX35" t="n">
-        <v>79</v>
+        <v>226</v>
       </c>
       <c r="AY35" t="n">
-        <v>79</v>
-      </c>
-      <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="inlineStr"/>
+        <v>226</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>-0.5942029</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>-0.6271186399999999</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>-0.34313725</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>-0.37209302</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>-0.45886076</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0.96428571</v>
+      </c>
       <c r="BF35" t="inlineStr"/>
       <c r="BG35" t="inlineStr"/>
-      <c r="BH35" t="inlineStr"/>
+      <c r="BH35" t="n">
+        <v>-0.34302326</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>1010471</v>
+        <v>1004407</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>mall premier tegucigalpa</t>
+          <t>Multiplaza Tegucigalpa</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Berta Soy Yo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -6623,40 +6739,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>67.95987656</v>
+        <v>69.22216306</v>
       </c>
       <c r="H36" t="n">
-        <v>67.95987656</v>
+        <v>69.22216306</v>
       </c>
       <c r="I36" t="n">
-        <v>170.61227249</v>
+        <v>219.67857043</v>
       </c>
       <c r="J36" t="n">
-        <v>170.61227249</v>
+        <v>219.67857043</v>
       </c>
       <c r="K36" t="n">
-        <v>153.14385605</v>
+        <v>228.02594891</v>
       </c>
       <c r="L36" t="n">
-        <v>153.14385605</v>
+        <v>228.02594891</v>
       </c>
       <c r="M36" t="n">
-        <v>250.58423029</v>
+        <v>69.22216306</v>
       </c>
       <c r="N36" t="n">
-        <v>250.58423029</v>
+        <v>69.22216306</v>
       </c>
       <c r="O36" t="n">
-        <v>642.30023538</v>
+        <v>586.14884546</v>
       </c>
       <c r="P36" t="n">
-        <v>642.30023538</v>
+        <v>586.14884546</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>121.34237996</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>121.34237996</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -6671,52 +6787,66 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>642.30023538</v>
+        <v>707.49122542</v>
       </c>
       <c r="X36" t="n">
-        <v>642.30023538</v>
-      </c>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+        <v>707.49122542</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>-0.78571118</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.26335446</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.34446935</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-0.77758781</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.54218922</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.20782273</v>
+      </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
+      <c r="AG36" t="n">
+        <v>-0.50646083</v>
+      </c>
       <c r="AH36" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI36" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AJ36" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="AK36" t="n">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="AL36" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="AM36" t="n">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="AN36" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AO36" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AP36" t="n">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="AS36" t="n">
         <v>0</v>
@@ -6731,39 +6861,53 @@
         <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AX36" t="n">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="AY36" t="n">
-        <v>88</v>
-      </c>
-      <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
+        <v>199</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>-0.69767442</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>-0.2375</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>-0.35106383</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>-0.7804878</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>-0.51461988</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>-0.23255814</v>
+      </c>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
+      <c r="BH36" t="n">
+        <v>-0.48311688</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>1010407</v>
+        <v>1010949</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Citymall Tegucigalpa</t>
+          <t>cascadas mall</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6773,44 +6917,44 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>68.81497387</v>
+        <v>162.87567779</v>
       </c>
       <c r="H37" t="n">
-        <v>68.81497387</v>
+        <v>162.87567779</v>
       </c>
       <c r="I37" t="n">
-        <v>67.38981169</v>
+        <v>99.35416345</v>
       </c>
       <c r="J37" t="n">
-        <v>67.38981169</v>
+        <v>99.35416345</v>
       </c>
       <c r="K37" t="n">
-        <v>302.13438231</v>
+        <v>106.27637976</v>
       </c>
       <c r="L37" t="n">
-        <v>302.13438231</v>
+        <v>106.27637976</v>
       </c>
       <c r="M37" t="n">
-        <v>180.38481316</v>
+        <v>277.29584145</v>
       </c>
       <c r="N37" t="n">
-        <v>180.38481316</v>
+        <v>277.29584145</v>
       </c>
       <c r="O37" t="n">
-        <v>618.72398102</v>
+        <v>645.80206246</v>
       </c>
       <c r="P37" t="n">
-        <v>618.72398102</v>
+        <v>645.80206246</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>32.16794636</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>32.16794636</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -6825,123 +6969,99 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>618.72398102</v>
+        <v>677.97000882</v>
       </c>
       <c r="X37" t="n">
-        <v>618.72398102</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>-0.19455016</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>-0.38877684</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>0.39461838</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>-0.48444338</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>-0.18825785</v>
-      </c>
+        <v>677.97000882</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="n">
-        <v>-0.18825785</v>
-      </c>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>79</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
         <v>19</v>
       </c>
-      <c r="AK37" t="n">
-        <v>19</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>77</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>77</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>46</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>163</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>21</v>
-      </c>
       <c r="AX37" t="n">
-        <v>163</v>
+        <v>83</v>
       </c>
       <c r="AY37" t="n">
-        <v>163</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>-0.34482759</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>0.32758621</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>-0.47727273</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>-0.185</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="inlineStr"/>
       <c r="BF37" t="inlineStr"/>
       <c r="BG37" t="inlineStr"/>
-      <c r="BH37" t="n">
-        <v>-0.185</v>
-      </c>
+      <c r="BH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>45</v>
       </c>
       <c r="B38" t="n">
-        <v>1004410</v>
+        <v>1010407</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>cascadas mall</t>
+          <t>Citymall Tegucigalpa</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Berta Soy Yo</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -6951,44 +7071,44 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>100.98292023</v>
+        <v>68.81497387</v>
       </c>
       <c r="H38" t="n">
-        <v>100.98292023</v>
+        <v>68.81497387</v>
       </c>
       <c r="I38" t="n">
-        <v>72.88686581</v>
+        <v>67.38981169</v>
       </c>
       <c r="J38" t="n">
-        <v>72.88686581</v>
+        <v>67.38981169</v>
       </c>
       <c r="K38" t="n">
-        <v>229.85830029</v>
+        <v>302.13438231</v>
       </c>
       <c r="L38" t="n">
-        <v>229.85830029</v>
+        <v>302.13438231</v>
       </c>
       <c r="M38" t="n">
-        <v>195.20649984</v>
+        <v>180.38481316</v>
       </c>
       <c r="N38" t="n">
-        <v>195.20649984</v>
+        <v>180.38481316</v>
       </c>
       <c r="O38" t="n">
-        <v>598.93458617</v>
+        <v>618.72398102</v>
       </c>
       <c r="P38" t="n">
-        <v>598.93458617</v>
+        <v>618.72398102</v>
       </c>
       <c r="Q38" t="n">
-        <v>6.84077847</v>
+        <v>49.26989253</v>
       </c>
       <c r="R38" t="n">
-        <v>6.84077847</v>
+        <v>49.26989253</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -7003,66 +7123,66 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>605.77536464</v>
+        <v>667.99387356</v>
       </c>
       <c r="X38" t="n">
-        <v>605.77536464</v>
+        <v>667.99387356</v>
       </c>
       <c r="Y38" t="n">
-        <v>-0.5790876700000001</v>
+        <v>-0.19455016</v>
       </c>
       <c r="Z38" t="n">
-        <v>-0.65029667</v>
+        <v>-0.38877684</v>
       </c>
       <c r="AA38" t="n">
-        <v>-0.38655532</v>
+        <v>0.39461838</v>
       </c>
       <c r="AB38" t="n">
-        <v>-0.35195866</v>
+        <v>-0.48444338</v>
       </c>
       <c r="AC38" t="n">
-        <v>-0.46726591</v>
+        <v>-0.18825785</v>
       </c>
       <c r="AD38" t="n">
-        <v>-0.92857111</v>
+        <v>-0.25703414</v>
       </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="n">
-        <v>-0.50347748</v>
+        <v>-0.19376265</v>
       </c>
       <c r="AH38" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AJ38" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AK38" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="AL38" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="n">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="AN38" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AO38" t="n">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="AP38" t="n">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AQ38" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AR38" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
@@ -7077,36 +7197,36 @@
         <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="AX38" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AY38" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AZ38" t="n">
-        <v>-0.5942029</v>
+        <v>-0.16</v>
       </c>
       <c r="BA38" t="n">
-        <v>-0.6271186399999999</v>
+        <v>-0.34482759</v>
       </c>
       <c r="BB38" t="n">
-        <v>-0.34313725</v>
+        <v>0.32758621</v>
       </c>
       <c r="BC38" t="n">
-        <v>-0.37209302</v>
+        <v>-0.47727273</v>
       </c>
       <c r="BD38" t="n">
-        <v>-0.45886076</v>
+        <v>-0.185</v>
       </c>
       <c r="BE38" t="n">
-        <v>-0.92857143</v>
+        <v>-0.31818182</v>
       </c>
       <c r="BF38" t="inlineStr"/>
       <c r="BG38" t="inlineStr"/>
       <c r="BH38" t="n">
-        <v>-0.49709302</v>
+        <v>-0.1981982</v>
       </c>
     </row>
     <row r="39">
@@ -7114,16 +7234,16 @@
         <v>47</v>
       </c>
       <c r="B39" t="n">
-        <v>1004407</v>
+        <v>1010471</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Multiplaza Tegucigalpa</t>
+          <t>mall premier tegucigalpa</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Berta Soy Yo</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -7137,34 +7257,34 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>69.22216306</v>
+        <v>67.95987656</v>
       </c>
       <c r="H39" t="n">
-        <v>69.22216306</v>
+        <v>67.95987656</v>
       </c>
       <c r="I39" t="n">
-        <v>219.67857043</v>
+        <v>170.61227249</v>
       </c>
       <c r="J39" t="n">
-        <v>219.67857043</v>
+        <v>170.61227249</v>
       </c>
       <c r="K39" t="n">
-        <v>228.02594891</v>
+        <v>153.14385605</v>
       </c>
       <c r="L39" t="n">
-        <v>228.02594891</v>
+        <v>153.14385605</v>
       </c>
       <c r="M39" t="n">
-        <v>69.22216306</v>
+        <v>250.58423029</v>
       </c>
       <c r="N39" t="n">
-        <v>69.22216306</v>
+        <v>250.58423029</v>
       </c>
       <c r="O39" t="n">
-        <v>586.14884546</v>
+        <v>642.30023538</v>
       </c>
       <c r="P39" t="n">
-        <v>586.14884546</v>
+        <v>642.30023538</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -7185,58 +7305,46 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>586.14884546</v>
+        <v>642.30023538</v>
       </c>
       <c r="X39" t="n">
-        <v>586.14884546</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>-0.78571118</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>-0.26335446</v>
-      </c>
-      <c r="AA39" t="n">
-        <v>-0.34446935</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>-0.77758781</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>-0.54218922</v>
-      </c>
+        <v>642.30023538</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="inlineStr"/>
       <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="n">
-        <v>-0.54218922</v>
-      </c>
+      <c r="AG39" t="inlineStr"/>
       <c r="AH39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AI39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AJ39" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="AK39" t="n">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="AL39" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="AM39" t="n">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="AN39" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AO39" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AP39" t="n">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="AQ39" t="n">
         <v>0</v>
@@ -7257,35 +7365,23 @@
         <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AX39" t="n">
-        <v>166</v>
+        <v>88</v>
       </c>
       <c r="AY39" t="n">
-        <v>166</v>
-      </c>
-      <c r="AZ39" t="n">
-        <v>-0.69767442</v>
-      </c>
-      <c r="BA39" t="n">
-        <v>-0.2375</v>
-      </c>
-      <c r="BB39" t="n">
-        <v>-0.35106383</v>
-      </c>
-      <c r="BC39" t="n">
-        <v>-0.7804878</v>
-      </c>
-      <c r="BD39" t="n">
-        <v>-0.51461988</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
       <c r="BE39" t="inlineStr"/>
       <c r="BF39" t="inlineStr"/>
       <c r="BG39" t="inlineStr"/>
-      <c r="BH39" t="n">
-        <v>-0.51461988</v>
-      </c>
+      <c r="BH39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -7345,16 +7441,16 @@
         <v>522.4644554400001</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.51756245</v>
+        <v>59.40890347</v>
       </c>
       <c r="R40" t="n">
-        <v>22.51756245</v>
+        <v>59.40890347</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>6.84077847</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>6.84077847</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -7363,10 +7459,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>544.9820179</v>
+        <v>588.71413738</v>
       </c>
       <c r="X40" t="n">
-        <v>544.9820179</v>
+        <v>588.71413738</v>
       </c>
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
@@ -7405,16 +7501,16 @@
         <v>146</v>
       </c>
       <c r="AQ40" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AR40" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="AS40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -7426,10 +7522,10 @@
         <v>32</v>
       </c>
       <c r="AX40" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AY40" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AZ40" t="inlineStr"/>
       <c r="BA40" t="inlineStr"/>
@@ -7499,10 +7595,10 @@
         <v>521.20216894</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>50.89864931</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>50.89864931</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -7517,10 +7613,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>521.20216894</v>
+        <v>572.10081825</v>
       </c>
       <c r="X41" t="n">
-        <v>521.20216894</v>
+        <v>572.10081825</v>
       </c>
       <c r="Y41" t="n">
         <v>-0.59346322</v>
@@ -7537,11 +7633,13 @@
       <c r="AC41" t="n">
         <v>-0.43414568</v>
       </c>
-      <c r="AD41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>-0.2891656</v>
+      </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="n">
-        <v>-0.43414568</v>
+        <v>-0.4236881</v>
       </c>
       <c r="AH41" t="n">
         <v>27</v>
@@ -7571,10 +7669,10 @@
         <v>145</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AS41" t="n">
         <v>0</v>
@@ -7592,10 +7690,10 @@
         <v>27</v>
       </c>
       <c r="AX41" t="n">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AY41" t="n">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="AZ41" t="n">
         <v>-0.5</v>
@@ -7612,16 +7710,18 @@
       <c r="BD41" t="n">
         <v>-0.40329218</v>
       </c>
-      <c r="BE41" t="inlineStr"/>
+      <c r="BE41" t="n">
+        <v>-0.1</v>
+      </c>
       <c r="BF41" t="inlineStr"/>
       <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="n">
-        <v>-0.40329218</v>
+        <v>-0.38022814</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" t="n">
         <v>1072631</v>
@@ -7633,7 +7733,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7647,40 +7747,40 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>48.69982766</v>
+        <v>62.21850892</v>
       </c>
       <c r="H42" t="n">
-        <v>48.69982766</v>
+        <v>62.21850892</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70489834999999</v>
+        <v>62.3813846</v>
       </c>
       <c r="J42" t="n">
-        <v>80.70489834999999</v>
+        <v>62.3813846</v>
       </c>
       <c r="K42" t="n">
-        <v>186.08546188</v>
+        <v>222.32530019</v>
       </c>
       <c r="L42" t="n">
-        <v>186.08546188</v>
+        <v>222.32530019</v>
       </c>
       <c r="M42" t="n">
-        <v>186.49265107</v>
+        <v>143.85994241</v>
       </c>
       <c r="N42" t="n">
-        <v>186.49265107</v>
+        <v>143.85994241</v>
       </c>
       <c r="O42" t="n">
-        <v>501.98283896</v>
+        <v>490.7851361100001</v>
       </c>
       <c r="P42" t="n">
-        <v>501.98283896</v>
+        <v>490.78513611</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>78.50607669999999</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>78.50607669999999</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -7695,62 +7795,52 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>501.98283896</v>
+        <v>569.29121281</v>
       </c>
       <c r="X42" t="n">
-        <v>501.98283896</v>
+        <v>569.29121281</v>
       </c>
       <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="n">
-        <v>3.63479973</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>-0.01530536</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>-0.13738895</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>0.07264042</v>
-      </c>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
       <c r="AD42" t="inlineStr"/>
       <c r="AE42" t="inlineStr"/>
       <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="n">
-        <v>0.07264042</v>
-      </c>
+      <c r="AG42" t="inlineStr"/>
       <c r="AH42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AI42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AJ42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AK42" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AL42" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AM42" t="n">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="AN42" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AO42" t="n">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="AP42" t="n">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AS42" t="n">
         <v>0</v>
@@ -7765,37 +7855,27 @@
         <v>0</v>
       </c>
       <c r="AW42" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AX42" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AY42" t="n">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="AZ42" t="inlineStr"/>
-      <c r="BA42" t="n">
-        <v>2.83333333</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>0.03571429</v>
-      </c>
-      <c r="BC42" t="n">
-        <v>-0.13432836</v>
-      </c>
-      <c r="BD42" t="n">
-        <v>0.07751938</v>
-      </c>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="inlineStr"/>
+      <c r="BC42" t="inlineStr"/>
+      <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="inlineStr"/>
       <c r="BF42" t="inlineStr"/>
       <c r="BG42" t="inlineStr"/>
-      <c r="BH42" t="n">
-        <v>0.07751938</v>
-      </c>
+      <c r="BH42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B43" t="n">
         <v>1072631</v>
@@ -7807,7 +7887,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -7821,40 +7901,40 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>62.21850892</v>
+        <v>48.69982766</v>
       </c>
       <c r="H43" t="n">
-        <v>62.21850892</v>
+        <v>48.69982766</v>
       </c>
       <c r="I43" t="n">
-        <v>62.3813846</v>
+        <v>80.70489834999999</v>
       </c>
       <c r="J43" t="n">
-        <v>62.3813846</v>
+        <v>80.70489834999999</v>
       </c>
       <c r="K43" t="n">
-        <v>222.32530019</v>
+        <v>186.08546188</v>
       </c>
       <c r="L43" t="n">
-        <v>222.32530019</v>
+        <v>186.08546188</v>
       </c>
       <c r="M43" t="n">
-        <v>143.85994241</v>
+        <v>186.49265107</v>
       </c>
       <c r="N43" t="n">
-        <v>143.85994241</v>
+        <v>186.49265107</v>
       </c>
       <c r="O43" t="n">
-        <v>490.7851361100001</v>
+        <v>501.98283896</v>
       </c>
       <c r="P43" t="n">
-        <v>490.78513611</v>
+        <v>501.98283896</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>14.98456236</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>14.98456236</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7869,52 +7949,64 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>490.7851361100001</v>
+        <v>516.96740132</v>
       </c>
       <c r="X43" t="n">
-        <v>490.78513611</v>
+        <v>516.96740132</v>
       </c>
       <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
+      <c r="Z43" t="n">
+        <v>3.63479973</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>-0.01530536</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>-0.13738895</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>0.07264042</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>-0.75247676</v>
+      </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
+      <c r="AG43" t="n">
+        <v>-0.03075111</v>
+      </c>
       <c r="AH43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AJ43" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AK43" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AL43" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AM43" t="n">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="AN43" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AO43" t="n">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="AP43" t="n">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -7929,39 +8021,51 @@
         <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AX43" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AY43" t="n">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="AZ43" t="inlineStr"/>
-      <c r="BA43" t="inlineStr"/>
-      <c r="BB43" t="inlineStr"/>
-      <c r="BC43" t="inlineStr"/>
-      <c r="BD43" t="inlineStr"/>
-      <c r="BE43" t="inlineStr"/>
+      <c r="BA43" t="n">
+        <v>2.83333333</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>0.03571429</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>-0.13432836</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>0.07751938</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>-0.68</v>
+      </c>
       <c r="BF43" t="inlineStr"/>
       <c r="BG43" t="inlineStr"/>
-      <c r="BH43" t="inlineStr"/>
+      <c r="BH43" t="n">
+        <v>-0.04545455</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B44" t="n">
-        <v>1010407</v>
+        <v>1004407</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Citymall Tegucigalpa</t>
+          <t>Multiplaza Tegucigalpa</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>Tierra Santa El Ultimo Peregrino</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -7975,40 +8079,40 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>31.76075717</v>
+        <v>104.64762298</v>
       </c>
       <c r="H44" t="n">
-        <v>31.76075717</v>
+        <v>104.64762298</v>
       </c>
       <c r="I44" t="n">
-        <v>50.08427092</v>
+        <v>40.71891945</v>
       </c>
       <c r="J44" t="n">
-        <v>50.08427092</v>
+        <v>40.71891945</v>
       </c>
       <c r="K44" t="n">
-        <v>171.42665088</v>
+        <v>114.01297446</v>
       </c>
       <c r="L44" t="n">
-        <v>171.42665088</v>
+        <v>114.01297446</v>
       </c>
       <c r="M44" t="n">
-        <v>206.6485162</v>
+        <v>81.4378389</v>
       </c>
       <c r="N44" t="n">
-        <v>206.6485162</v>
+        <v>81.4378389</v>
       </c>
       <c r="O44" t="n">
-        <v>459.92019517</v>
+        <v>340.81735579</v>
       </c>
       <c r="P44" t="n">
-        <v>459.92019517</v>
+        <v>340.81735579</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>127.85740707</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>127.85740707</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -8023,64 +8127,52 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>459.92019517</v>
+        <v>468.67476285</v>
       </c>
       <c r="X44" t="n">
-        <v>459.92019517</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>0.34597719</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>-0.6522453499999999</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>-0.6575701900000001</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>-0.38729333</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>-0.5425994200000001</v>
-      </c>
+        <v>468.67476285</v>
+      </c>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
       <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="n">
-        <v>-0.5425994200000001</v>
-      </c>
+      <c r="AG44" t="inlineStr"/>
       <c r="AH44" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AI44" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AJ44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK44" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL44" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AM44" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="AN44" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="AO44" t="n">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="AP44" t="n">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AR44" t="n">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="AS44" t="n">
         <v>0</v>
@@ -8095,46 +8187,34 @@
         <v>0</v>
       </c>
       <c r="AW44" t="n">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="AX44" t="n">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="AY44" t="n">
-        <v>125</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>0.14285714</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>-0.60606061</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>-0.65413534</v>
-      </c>
-      <c r="BC44" t="n">
-        <v>-0.34831461</v>
-      </c>
-      <c r="BD44" t="n">
-        <v>-0.52290076</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="AZ44" t="inlineStr"/>
+      <c r="BA44" t="inlineStr"/>
+      <c r="BB44" t="inlineStr"/>
+      <c r="BC44" t="inlineStr"/>
+      <c r="BD44" t="inlineStr"/>
       <c r="BE44" t="inlineStr"/>
       <c r="BF44" t="inlineStr"/>
       <c r="BG44" t="inlineStr"/>
-      <c r="BH44" t="n">
-        <v>-0.52290076</v>
-      </c>
+      <c r="BH44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B45" t="n">
-        <v>1004410</v>
+        <v>1010407</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>cascadas mall</t>
+          <t>Citymall Tegucigalpa</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8149,44 +8229,44 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>83.02587676</v>
+        <v>31.76075717</v>
       </c>
       <c r="H45" t="n">
-        <v>83.02587676</v>
+        <v>31.76075717</v>
       </c>
       <c r="I45" t="n">
-        <v>41.32970324</v>
+        <v>50.08427092</v>
       </c>
       <c r="J45" t="n">
-        <v>41.32970324</v>
+        <v>50.08427092</v>
       </c>
       <c r="K45" t="n">
-        <v>173.05540766</v>
+        <v>171.42665088</v>
       </c>
       <c r="L45" t="n">
-        <v>173.05540766</v>
+        <v>171.42665088</v>
       </c>
       <c r="M45" t="n">
-        <v>138.11857477</v>
+        <v>206.6485162</v>
       </c>
       <c r="N45" t="n">
-        <v>138.11857477</v>
+        <v>206.6485162</v>
       </c>
       <c r="O45" t="n">
-        <v>435.52956242</v>
+        <v>459.92019517</v>
       </c>
       <c r="P45" t="n">
-        <v>435.52956242</v>
+        <v>459.92019517</v>
       </c>
       <c r="Q45" t="n">
-        <v>16.28756778</v>
+        <v>8.55097308</v>
       </c>
       <c r="R45" t="n">
-        <v>16.28756778</v>
+        <v>8.55097308</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -8201,45 +8281,45 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>451.8171302</v>
+        <v>468.47116825</v>
       </c>
       <c r="X45" t="n">
-        <v>451.8171302</v>
+        <v>468.47116825</v>
       </c>
       <c r="Y45" t="n">
-        <v>4.70039947</v>
+        <v>0.34597719</v>
       </c>
       <c r="Z45" t="n">
-        <v>-0.33646789</v>
+        <v>-0.6522453499999999</v>
       </c>
       <c r="AA45" t="n">
-        <v>0.05811767</v>
+        <v>-0.6575701900000001</v>
       </c>
       <c r="AB45" t="n">
-        <v>-0.53488155</v>
+        <v>-0.38729333</v>
       </c>
       <c r="AC45" t="n">
-        <v>-0.18949551</v>
+        <v>-0.5425994200000001</v>
       </c>
       <c r="AD45" t="n">
-        <v>-0.51824075</v>
+        <v>-0.8570207399999999</v>
       </c>
       <c r="AE45" t="inlineStr"/>
       <c r="AF45" t="inlineStr"/>
       <c r="AG45" t="n">
-        <v>-0.20895468</v>
+        <v>-0.56025072</v>
       </c>
       <c r="AH45" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AI45" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AJ45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AK45" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL45" t="n">
         <v>46</v>
@@ -8248,19 +8328,19 @@
         <v>46</v>
       </c>
       <c r="AN45" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AO45" t="n">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AP45" t="n">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AQ45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AR45" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AS45" t="n">
         <v>0</v>
@@ -8275,36 +8355,36 @@
         <v>0</v>
       </c>
       <c r="AW45" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AX45" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AY45" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AZ45" t="n">
-        <v>4.75</v>
+        <v>0.14285714</v>
       </c>
       <c r="BA45" t="n">
-        <v>-0.35294118</v>
+        <v>-0.60606061</v>
       </c>
       <c r="BB45" t="n">
-        <v>-0.06122449</v>
+        <v>-0.65413534</v>
       </c>
       <c r="BC45" t="n">
-        <v>-0.54761905</v>
+        <v>-0.34831461</v>
       </c>
       <c r="BD45" t="n">
-        <v>-0.23376623</v>
+        <v>-0.52290076</v>
       </c>
       <c r="BE45" t="n">
-        <v>-0.6</v>
+        <v>-0.83333333</v>
       </c>
       <c r="BF45" t="inlineStr"/>
       <c r="BG45" t="inlineStr"/>
       <c r="BH45" t="n">
-        <v>-0.26627219</v>
+        <v>-0.54285714</v>
       </c>
     </row>
     <row r="46">
@@ -8312,21 +8392,21 @@
         <v>63</v>
       </c>
       <c r="B46" t="n">
-        <v>1056641</v>
+        <v>1004410</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>altara</t>
+          <t>cascadas mall</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Berta Soy Yo</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -8335,40 +8415,40 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>118.24774208</v>
+        <v>83.02587676</v>
       </c>
       <c r="H46" t="n">
-        <v>118.24774208</v>
+        <v>83.02587676</v>
       </c>
       <c r="I46" t="n">
-        <v>35.01827073</v>
+        <v>41.32970324</v>
       </c>
       <c r="J46" t="n">
-        <v>35.01827073</v>
+        <v>41.32970324</v>
       </c>
       <c r="K46" t="n">
-        <v>100.57573104</v>
+        <v>173.05540766</v>
       </c>
       <c r="L46" t="n">
-        <v>100.57573104</v>
+        <v>173.05540766</v>
       </c>
       <c r="M46" t="n">
-        <v>135.39040717</v>
+        <v>138.11857477</v>
       </c>
       <c r="N46" t="n">
-        <v>135.39040717</v>
+        <v>138.11857477</v>
       </c>
       <c r="O46" t="n">
-        <v>389.23215101</v>
+        <v>435.52956242</v>
       </c>
       <c r="P46" t="n">
-        <v>389.23215101</v>
+        <v>435.52956242</v>
       </c>
       <c r="Q46" t="n">
-        <v>26.18226521</v>
+        <v>16.28756778</v>
       </c>
       <c r="R46" t="n">
-        <v>26.18226521</v>
+        <v>16.28756778</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -8383,66 +8463,66 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>415.41441622</v>
+        <v>451.8171302</v>
       </c>
       <c r="X46" t="n">
-        <v>415.41441622</v>
+        <v>451.8171302</v>
       </c>
       <c r="Y46" t="n">
-        <v>-0.309296</v>
+        <v>4.70039947</v>
       </c>
       <c r="Z46" t="n">
-        <v>-0.49782079</v>
+        <v>-0.33646789</v>
       </c>
       <c r="AA46" t="n">
-        <v>-0.64332543</v>
+        <v>0.05811767</v>
       </c>
       <c r="AB46" t="n">
-        <v>-0.48067379</v>
+        <v>-0.53488155</v>
       </c>
       <c r="AC46" t="n">
-        <v>-0.50328792</v>
+        <v>-0.18949551</v>
       </c>
       <c r="AD46" t="n">
-        <v>-0.8058087900000001</v>
+        <v>-0.51824075</v>
       </c>
       <c r="AE46" t="inlineStr"/>
       <c r="AF46" t="inlineStr"/>
       <c r="AG46" t="n">
-        <v>-0.54769785</v>
+        <v>-0.20895468</v>
       </c>
       <c r="AH46" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AI46" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AJ46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK46" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL46" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AM46" t="n">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="AN46" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO46" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AP46" t="n">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AQ46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AR46" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS46" t="n">
         <v>0</v>
@@ -8457,48 +8537,48 @@
         <v>0</v>
       </c>
       <c r="AW46" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AX46" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AY46" t="n">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="AZ46" t="n">
-        <v>-0.23913043</v>
+        <v>4.75</v>
       </c>
       <c r="BA46" t="n">
-        <v>-0.5</v>
+        <v>-0.35294118</v>
       </c>
       <c r="BB46" t="n">
-        <v>-0.6623376600000001</v>
+        <v>-0.06122449</v>
       </c>
       <c r="BC46" t="n">
-        <v>-0.45833333</v>
+        <v>-0.54761905</v>
       </c>
       <c r="BD46" t="n">
-        <v>-0.48837209</v>
+        <v>-0.23376623</v>
       </c>
       <c r="BE46" t="n">
-        <v>-0.82051282</v>
+        <v>-0.6</v>
       </c>
       <c r="BF46" t="inlineStr"/>
       <c r="BG46" t="inlineStr"/>
       <c r="BH46" t="n">
-        <v>-0.53937008</v>
+        <v>-0.26627219</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47" t="n">
-        <v>1072631</v>
+        <v>1056641</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Megaplaza La Ceiba</t>
+          <t>altara</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8508,49 +8588,49 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>La Ceiba</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>119.9579367</v>
+        <v>118.24774208</v>
       </c>
       <c r="H47" t="n">
-        <v>119.9579367</v>
+        <v>118.24774208</v>
       </c>
       <c r="I47" t="n">
-        <v>48.69982766</v>
+        <v>35.01827073</v>
       </c>
       <c r="J47" t="n">
-        <v>48.69982766</v>
+        <v>35.01827073</v>
       </c>
       <c r="K47" t="n">
-        <v>142.35334239</v>
+        <v>100.57573104</v>
       </c>
       <c r="L47" t="n">
-        <v>142.35334239</v>
+        <v>100.57573104</v>
       </c>
       <c r="M47" t="n">
-        <v>97.39965531999999</v>
+        <v>135.39040717</v>
       </c>
       <c r="N47" t="n">
-        <v>97.39965531999999</v>
+        <v>135.39040717</v>
       </c>
       <c r="O47" t="n">
-        <v>408.41076207</v>
+        <v>389.23215101</v>
       </c>
       <c r="P47" t="n">
-        <v>408.41076207</v>
+        <v>389.23215101</v>
       </c>
       <c r="Q47" t="n">
-        <v>0</v>
+        <v>52.36453041</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>52.36453041</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -8565,64 +8645,66 @@
         <v>0</v>
       </c>
       <c r="W47" t="n">
-        <v>408.41076207</v>
+        <v>441.59668142</v>
       </c>
       <c r="X47" t="n">
-        <v>408.41076207</v>
+        <v>441.59668142</v>
       </c>
       <c r="Y47" t="n">
-        <v>-0.31301996</v>
+        <v>-0.309296</v>
       </c>
       <c r="Z47" t="n">
-        <v>-0.77717379</v>
+        <v>-0.49782079</v>
       </c>
       <c r="AA47" t="n">
-        <v>-0.39879923</v>
+        <v>-0.64332543</v>
       </c>
       <c r="AB47" t="n">
-        <v>-0.63157206</v>
+        <v>-0.48067379</v>
       </c>
       <c r="AC47" t="n">
-        <v>-0.5433275400000001</v>
-      </c>
-      <c r="AD47" t="inlineStr"/>
+        <v>-0.50328792</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>-0.61161759</v>
+      </c>
       <c r="AE47" t="inlineStr"/>
       <c r="AF47" t="inlineStr"/>
       <c r="AG47" t="n">
-        <v>-0.5433275400000001</v>
+        <v>-0.51919067</v>
       </c>
       <c r="AH47" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AI47" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AJ47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AK47" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AL47" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="AM47" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="AN47" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AO47" t="n">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="AP47" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="AQ47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AR47" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AS47" t="n">
         <v>0</v>
@@ -8637,39 +8719,41 @@
         <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="AX47" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AY47" t="n">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="AZ47" t="n">
-        <v>-0.10416667</v>
+        <v>-0.23913043</v>
       </c>
       <c r="BA47" t="n">
-        <v>-0.75806452</v>
+        <v>-0.5</v>
       </c>
       <c r="BB47" t="n">
-        <v>-0.4109589</v>
+        <v>-0.6623376600000001</v>
       </c>
       <c r="BC47" t="n">
-        <v>-0.6547619</v>
+        <v>-0.45833333</v>
       </c>
       <c r="BD47" t="n">
-        <v>-0.51310861</v>
-      </c>
-      <c r="BE47" t="inlineStr"/>
+        <v>-0.48837209</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>-0.58974359</v>
+      </c>
       <c r="BF47" t="inlineStr"/>
       <c r="BG47" t="inlineStr"/>
       <c r="BH47" t="n">
-        <v>-0.51310861</v>
+        <v>-0.50393701</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B48" t="n">
         <v>1006720</v>
@@ -8725,10 +8809,10 @@
         <v>408.20716747</v>
       </c>
       <c r="Q48" t="n">
-        <v>0</v>
+        <v>16.28756778</v>
       </c>
       <c r="R48" t="n">
-        <v>0</v>
+        <v>16.28756778</v>
       </c>
       <c r="S48" t="n">
         <v>0</v>
@@ -8743,10 +8827,10 @@
         <v>0</v>
       </c>
       <c r="W48" t="n">
-        <v>408.20716747</v>
+        <v>424.49473525</v>
       </c>
       <c r="X48" t="n">
-        <v>408.20716747</v>
+        <v>424.49473525</v>
       </c>
       <c r="Y48" t="n">
         <v>6.70658223</v>
@@ -8763,11 +8847,13 @@
       <c r="AC48" t="n">
         <v>0.37164316</v>
       </c>
-      <c r="AD48" t="inlineStr"/>
+      <c r="AD48" t="n">
+        <v>-0.5829771500000001</v>
+      </c>
       <c r="AE48" t="inlineStr"/>
       <c r="AF48" t="inlineStr"/>
       <c r="AG48" t="n">
-        <v>0.37164316</v>
+        <v>0.26089567</v>
       </c>
       <c r="AH48" t="n">
         <v>9</v>
@@ -8797,10 +8883,10 @@
         <v>112</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR48" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS48" t="n">
         <v>0</v>
@@ -8818,10 +8904,10 @@
         <v>9</v>
       </c>
       <c r="AX48" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AY48" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="AZ48" t="n">
         <v>3.5</v>
@@ -8838,33 +8924,35 @@
       <c r="BD48" t="n">
         <v>0.45454545</v>
       </c>
-      <c r="BE48" t="inlineStr"/>
+      <c r="BE48" t="n">
+        <v>-0.5</v>
+      </c>
       <c r="BF48" t="inlineStr"/>
       <c r="BG48" t="inlineStr"/>
       <c r="BH48" t="n">
-        <v>0.45454545</v>
+        <v>0.3258427</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B49" t="n">
-        <v>1006720</v>
+        <v>1072631</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>mall premier juticalpa</t>
+          <t>Megaplaza La Ceiba</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>Berta Soy Yo</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>La Ceiba</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8873,40 +8961,40 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>33.79670314</v>
+        <v>119.9579367</v>
       </c>
       <c r="H49" t="n">
-        <v>33.79670314</v>
+        <v>119.9579367</v>
       </c>
       <c r="I49" t="n">
-        <v>63.72510894</v>
+        <v>48.69982766</v>
       </c>
       <c r="J49" t="n">
-        <v>63.72510894</v>
+        <v>48.69982766</v>
       </c>
       <c r="K49" t="n">
-        <v>87.95286600999999</v>
+        <v>142.35334239</v>
       </c>
       <c r="L49" t="n">
-        <v>87.95286600999999</v>
+        <v>142.35334239</v>
       </c>
       <c r="M49" t="n">
-        <v>220.69654341</v>
+        <v>97.39965531999999</v>
       </c>
       <c r="N49" t="n">
-        <v>220.69654341</v>
+        <v>97.39965531999999</v>
       </c>
       <c r="O49" t="n">
-        <v>406.1712215</v>
+        <v>408.41076207</v>
       </c>
       <c r="P49" t="n">
-        <v>406.1712215</v>
+        <v>408.41076207</v>
       </c>
       <c r="Q49" t="n">
-        <v>0</v>
+        <v>14.98456236</v>
       </c>
       <c r="R49" t="n">
-        <v>0</v>
+        <v>14.98456236</v>
       </c>
       <c r="S49" t="n">
         <v>0</v>
@@ -8921,64 +9009,66 @@
         <v>0</v>
       </c>
       <c r="W49" t="n">
-        <v>406.1712215</v>
+        <v>423.39532443</v>
       </c>
       <c r="X49" t="n">
-        <v>406.1712215</v>
+        <v>423.39532443</v>
       </c>
       <c r="Y49" t="n">
-        <v>-0.25563664</v>
+        <v>-0.31301996</v>
       </c>
       <c r="Z49" t="n">
-        <v>1.74796108</v>
+        <v>-0.77717379</v>
       </c>
       <c r="AA49" t="n">
-        <v>0.50128225</v>
+        <v>-0.39879923</v>
       </c>
       <c r="AB49" t="n">
-        <v>6.04497819</v>
+        <v>-0.63157206</v>
       </c>
       <c r="AC49" t="n">
-        <v>1.56250693</v>
-      </c>
-      <c r="AD49" t="inlineStr"/>
+        <v>-0.5433275400000001</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>-0.8474256100000001</v>
+      </c>
       <c r="AE49" t="inlineStr"/>
       <c r="AF49" t="inlineStr"/>
       <c r="AG49" t="n">
-        <v>1.56250693</v>
+        <v>-0.57341824</v>
       </c>
       <c r="AH49" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AI49" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AJ49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL49" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AM49" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="AN49" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AO49" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AP49" t="n">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR49" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS49" t="n">
         <v>0</v>
@@ -8993,39 +9083,41 @@
         <v>0</v>
       </c>
       <c r="AW49" t="n">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="AX49" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="AY49" t="n">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="AZ49" t="n">
-        <v>-0.41176471</v>
+        <v>-0.10416667</v>
       </c>
       <c r="BA49" t="n">
-        <v>1.83333333</v>
+        <v>-0.75806452</v>
       </c>
       <c r="BB49" t="n">
-        <v>0.38888889</v>
+        <v>-0.4109589</v>
       </c>
       <c r="BC49" t="n">
-        <v>4.45454545</v>
+        <v>-0.6547619</v>
       </c>
       <c r="BD49" t="n">
-        <v>1.15384615</v>
-      </c>
-      <c r="BE49" t="inlineStr"/>
+        <v>-0.51310861</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>-0.83870968</v>
+      </c>
       <c r="BF49" t="inlineStr"/>
       <c r="BG49" t="inlineStr"/>
       <c r="BH49" t="n">
-        <v>1.15384615</v>
+        <v>-0.54697987</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B50" t="n">
         <v>1056641</v>
@@ -9081,10 +9173,10 @@
         <v>373.84039946</v>
       </c>
       <c r="Q50" t="n">
-        <v>10.01685419</v>
+        <v>41.49257892</v>
       </c>
       <c r="R50" t="n">
-        <v>10.01685419</v>
+        <v>41.49257892</v>
       </c>
       <c r="S50" t="n">
         <v>0</v>
@@ -9099,10 +9191,10 @@
         <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>383.85725364</v>
+        <v>415.33297838</v>
       </c>
       <c r="X50" t="n">
-        <v>383.85725364</v>
+        <v>415.33297838</v>
       </c>
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
@@ -9141,10 +9233,10 @@
         <v>99</v>
       </c>
       <c r="AQ50" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AR50" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AS50" t="n">
         <v>0</v>
@@ -9162,10 +9254,10 @@
         <v>30</v>
       </c>
       <c r="AX50" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AY50" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="AZ50" t="inlineStr"/>
       <c r="BA50" t="inlineStr"/>
@@ -9179,66 +9271,66 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="n">
-        <v>1010949</v>
+        <v>1072631</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>cascadas mall</t>
+          <t>Megaplaza La Ceiba</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>La Ceiba</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Cinepolis</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>103.01886621</v>
+        <v>18.24207591</v>
       </c>
       <c r="H51" t="n">
-        <v>103.01886621</v>
+        <v>18.24207591</v>
       </c>
       <c r="I51" t="n">
-        <v>103.83324459</v>
+        <v>98.53978506999999</v>
       </c>
       <c r="J51" t="n">
-        <v>103.83324459</v>
+        <v>98.53978506999999</v>
       </c>
       <c r="K51" t="n">
-        <v>53.74897367</v>
+        <v>92.59482283</v>
       </c>
       <c r="L51" t="n">
-        <v>53.74897367</v>
+        <v>92.59482283</v>
       </c>
       <c r="M51" t="n">
-        <v>103.01886621</v>
+        <v>165.23737512</v>
       </c>
       <c r="N51" t="n">
-        <v>103.01886621</v>
+        <v>165.23737512</v>
       </c>
       <c r="O51" t="n">
-        <v>363.61995068</v>
+        <v>374.6140589300001</v>
       </c>
       <c r="P51" t="n">
-        <v>363.61995068</v>
+        <v>374.61405893</v>
       </c>
       <c r="Q51" t="n">
-        <v>17.91632456</v>
+        <v>32.73801124</v>
       </c>
       <c r="R51" t="n">
-        <v>17.91632456</v>
+        <v>32.73801124</v>
       </c>
       <c r="S51" t="n">
         <v>0</v>
@@ -9253,52 +9345,66 @@
         <v>0</v>
       </c>
       <c r="W51" t="n">
-        <v>381.53627523</v>
+        <v>407.35207017</v>
       </c>
       <c r="X51" t="n">
-        <v>381.53627523</v>
-      </c>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
+        <v>407.35207017</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>0.0213735</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>-0.8635608</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>-0.29340457</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>0.19736702</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>-0.62877502</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>0.55947149</v>
+      </c>
       <c r="AE51" t="inlineStr"/>
       <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
+      <c r="AG51" t="n">
+        <v>-0.60455957</v>
+      </c>
       <c r="AH51" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AI51" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AJ51" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AK51" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="AL51" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AM51" t="n">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="AN51" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AO51" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="AP51" t="n">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="AQ51" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AR51" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AS51" t="n">
         <v>0</v>
@@ -9313,44 +9419,58 @@
         <v>0</v>
       </c>
       <c r="AW51" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AX51" t="n">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="AY51" t="n">
-        <v>46</v>
-      </c>
-      <c r="AZ51" t="inlineStr"/>
-      <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr"/>
-      <c r="BD51" t="inlineStr"/>
-      <c r="BE51" t="inlineStr"/>
+        <v>129</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>-0.90102389</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>-0.2195122</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>0.04255319</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>-0.69430052</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>0.57142857</v>
+      </c>
       <c r="BF51" t="inlineStr"/>
       <c r="BG51" t="inlineStr"/>
-      <c r="BH51" t="inlineStr"/>
+      <c r="BH51" t="n">
+        <v>-0.67175573</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B52" t="n">
-        <v>1072631</v>
+        <v>1006720</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Megaplaza La Ceiba</t>
+          <t>mall premier juticalpa</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>La Ceiba</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -9359,34 +9479,34 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>18.24207591</v>
+        <v>33.79670314</v>
       </c>
       <c r="H52" t="n">
-        <v>18.24207591</v>
+        <v>33.79670314</v>
       </c>
       <c r="I52" t="n">
-        <v>98.53978506999999</v>
+        <v>63.72510894</v>
       </c>
       <c r="J52" t="n">
-        <v>98.53978506999999</v>
+        <v>63.72510894</v>
       </c>
       <c r="K52" t="n">
-        <v>92.59482283</v>
+        <v>87.95286600999999</v>
       </c>
       <c r="L52" t="n">
-        <v>92.59482283</v>
+        <v>87.95286600999999</v>
       </c>
       <c r="M52" t="n">
-        <v>165.23737512</v>
+        <v>220.69654341</v>
       </c>
       <c r="N52" t="n">
-        <v>165.23737512</v>
+        <v>220.69654341</v>
       </c>
       <c r="O52" t="n">
-        <v>374.6140589300001</v>
+        <v>406.1712215</v>
       </c>
       <c r="P52" t="n">
-        <v>374.61405893</v>
+        <v>406.1712215</v>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -9407,58 +9527,58 @@
         <v>0</v>
       </c>
       <c r="W52" t="n">
-        <v>374.6140589300001</v>
+        <v>406.1712215</v>
       </c>
       <c r="X52" t="n">
-        <v>374.61405893</v>
+        <v>406.1712215</v>
       </c>
       <c r="Y52" t="n">
-        <v>0.0213735</v>
+        <v>-0.25563664</v>
       </c>
       <c r="Z52" t="n">
-        <v>-0.8635608</v>
+        <v>1.74796108</v>
       </c>
       <c r="AA52" t="n">
-        <v>-0.29340457</v>
+        <v>0.50128225</v>
       </c>
       <c r="AB52" t="n">
-        <v>0.19736702</v>
+        <v>6.04497819</v>
       </c>
       <c r="AC52" t="n">
-        <v>-0.62877502</v>
+        <v>1.56250693</v>
       </c>
       <c r="AD52" t="inlineStr"/>
       <c r="AE52" t="inlineStr"/>
       <c r="AF52" t="inlineStr"/>
       <c r="AG52" t="n">
-        <v>-0.62877502</v>
+        <v>1.56250693</v>
       </c>
       <c r="AH52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AI52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ52" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AK52" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AL52" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AM52" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AN52" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AO52" t="n">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="AP52" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AQ52" t="n">
         <v>0</v>
@@ -9479,39 +9599,39 @@
         <v>0</v>
       </c>
       <c r="AW52" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AX52" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AY52" t="n">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="AZ52" t="n">
-        <v>0.6</v>
+        <v>-0.41176471</v>
       </c>
       <c r="BA52" t="n">
-        <v>-0.90102389</v>
+        <v>1.83333333</v>
       </c>
       <c r="BB52" t="n">
-        <v>-0.2195122</v>
+        <v>0.38888889</v>
       </c>
       <c r="BC52" t="n">
-        <v>0.04255319</v>
+        <v>4.45454545</v>
       </c>
       <c r="BD52" t="n">
-        <v>-0.69430052</v>
+        <v>1.15384615</v>
       </c>
       <c r="BE52" t="inlineStr"/>
       <c r="BF52" t="inlineStr"/>
       <c r="BG52" t="inlineStr"/>
       <c r="BH52" t="n">
-        <v>-0.69430052</v>
+        <v>1.15384615</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B53" t="n">
         <v>1004410</v>
@@ -9567,10 +9687,10 @@
         <v>343.34192879</v>
       </c>
       <c r="Q53" t="n">
-        <v>23.82056788</v>
+        <v>56.80289263</v>
       </c>
       <c r="R53" t="n">
-        <v>23.82056788</v>
+        <v>56.80289263</v>
       </c>
       <c r="S53" t="n">
         <v>0</v>
@@ -9585,10 +9705,10 @@
         <v>0</v>
       </c>
       <c r="W53" t="n">
-        <v>367.16249667</v>
+        <v>400.14482142</v>
       </c>
       <c r="X53" t="n">
-        <v>367.16249667</v>
+        <v>400.14482142</v>
       </c>
       <c r="Y53" t="n">
         <v>-0.66560224</v>
@@ -9606,12 +9726,12 @@
         <v>-0.50811867</v>
       </c>
       <c r="AD53" t="n">
-        <v>-0.48550081</v>
+        <v>0.22688268</v>
       </c>
       <c r="AE53" t="inlineStr"/>
       <c r="AF53" t="inlineStr"/>
       <c r="AG53" t="n">
-        <v>-0.5067117799999999</v>
+        <v>-0.46239954</v>
       </c>
       <c r="AH53" t="n">
         <v>11</v>
@@ -9641,10 +9761,10 @@
         <v>94</v>
       </c>
       <c r="AQ53" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AR53" t="n">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="AS53" t="n">
         <v>0</v>
@@ -9662,10 +9782,10 @@
         <v>11</v>
       </c>
       <c r="AX53" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AY53" t="n">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="AZ53" t="n">
         <v>-0.67647059</v>
@@ -9683,17 +9803,17 @@
         <v>-0.51295337</v>
       </c>
       <c r="BE53" t="n">
-        <v>-0.27777778</v>
+        <v>0.72222222</v>
       </c>
       <c r="BF53" t="inlineStr"/>
       <c r="BG53" t="inlineStr"/>
       <c r="BH53" t="n">
-        <v>-0.492891</v>
+        <v>-0.40758294</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B54" t="n">
         <v>1006720</v>
@@ -9749,10 +9869,10 @@
         <v>352.62584243</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>32.57513556</v>
       </c>
       <c r="R54" t="n">
-        <v>0</v>
+        <v>32.57513556</v>
       </c>
       <c r="S54" t="n">
         <v>0</v>
@@ -9767,10 +9887,10 @@
         <v>0</v>
       </c>
       <c r="W54" t="n">
-        <v>352.62584243</v>
+        <v>385.20097798</v>
       </c>
       <c r="X54" t="n">
-        <v>352.62584243</v>
+        <v>385.20097798</v>
       </c>
       <c r="Y54" t="n">
         <v>-0.59681203</v>
@@ -9787,11 +9907,13 @@
       <c r="AC54" t="n">
         <v>-0.47294601</v>
       </c>
-      <c r="AD54" t="inlineStr"/>
+      <c r="AD54" t="n">
+        <v>-0.74003771</v>
+      </c>
       <c r="AE54" t="inlineStr"/>
       <c r="AF54" t="inlineStr"/>
       <c r="AG54" t="n">
-        <v>-0.47294601</v>
+        <v>-0.51507878</v>
       </c>
       <c r="AH54" t="n">
         <v>12</v>
@@ -9821,10 +9943,10 @@
         <v>94</v>
       </c>
       <c r="AQ54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AR54" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AS54" t="n">
         <v>0</v>
@@ -9842,10 +9964,10 @@
         <v>12</v>
       </c>
       <c r="AX54" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AY54" t="n">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="AZ54" t="n">
         <v>-0.5</v>
@@ -9862,33 +9984,35 @@
       <c r="BD54" t="n">
         <v>-0.5</v>
       </c>
-      <c r="BE54" t="inlineStr"/>
+      <c r="BE54" t="n">
+        <v>-0.62857143</v>
+      </c>
       <c r="BF54" t="inlineStr"/>
       <c r="BG54" t="inlineStr"/>
       <c r="BH54" t="n">
-        <v>-0.5</v>
+        <v>-0.52017937</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B55" t="n">
-        <v>1056641</v>
+        <v>1010949</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>altara</t>
+          <t>cascadas mall</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>San Pedro Sula</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -9897,40 +10021,40 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>15.47318939</v>
+        <v>103.01886621</v>
       </c>
       <c r="H55" t="n">
-        <v>15.47318939</v>
+        <v>103.01886621</v>
       </c>
       <c r="I55" t="n">
-        <v>48.61838982</v>
+        <v>103.83324459</v>
       </c>
       <c r="J55" t="n">
-        <v>48.61838982</v>
+        <v>103.83324459</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>53.74897367</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>53.74897367</v>
       </c>
       <c r="M55" t="n">
-        <v>263.81787911</v>
+        <v>103.01886621</v>
       </c>
       <c r="N55" t="n">
-        <v>263.81787911</v>
+        <v>103.01886621</v>
       </c>
       <c r="O55" t="n">
-        <v>327.90945832</v>
+        <v>363.61995068</v>
       </c>
       <c r="P55" t="n">
-        <v>327.90945832</v>
+        <v>363.61995068</v>
       </c>
       <c r="Q55" t="n">
-        <v>20.5223354</v>
+        <v>17.91632456</v>
       </c>
       <c r="R55" t="n">
-        <v>20.5223354</v>
+        <v>17.91632456</v>
       </c>
       <c r="S55" t="n">
         <v>0</v>
@@ -9945,111 +10069,87 @@
         <v>0</v>
       </c>
       <c r="W55" t="n">
-        <v>348.43179372</v>
+        <v>381.53627523</v>
       </c>
       <c r="X55" t="n">
-        <v>348.43179372</v>
-      </c>
-      <c r="Y55" t="n">
-        <v>7.0920178</v>
-      </c>
-      <c r="Z55" t="n">
-        <v>-0.24604374</v>
-      </c>
+        <v>381.53627523</v>
+      </c>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="n">
-        <v>0.32472696</v>
-      </c>
-      <c r="AC55" t="n">
-        <v>0.23485276</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>-0.3457447</v>
-      </c>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
       <c r="AE55" t="inlineStr"/>
       <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="n">
-        <v>0.17351532</v>
-      </c>
+      <c r="AG55" t="inlineStr"/>
       <c r="AH55" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AI55" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AJ55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>6</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>44</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW55" t="n">
         <v>14</v>
       </c>
-      <c r="AK55" t="n">
-        <v>14</v>
-      </c>
-      <c r="AL55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN55" t="n">
-        <v>71</v>
-      </c>
-      <c r="AO55" t="n">
-        <v>71</v>
-      </c>
-      <c r="AP55" t="n">
-        <v>89</v>
-      </c>
-      <c r="AQ55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AR55" t="n">
-        <v>6</v>
-      </c>
-      <c r="AS55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV55" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW55" t="n">
-        <v>4</v>
-      </c>
       <c r="AX55" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="AY55" t="n">
-        <v>95</v>
-      </c>
-      <c r="AZ55" t="n">
-        <v>3</v>
-      </c>
-      <c r="BA55" t="n">
-        <v>-0.17647059</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="AZ55" t="inlineStr"/>
+      <c r="BA55" t="inlineStr"/>
       <c r="BB55" t="inlineStr"/>
-      <c r="BC55" t="n">
-        <v>0.29090909</v>
-      </c>
-      <c r="BD55" t="n">
-        <v>0.21917808</v>
-      </c>
-      <c r="BE55" t="n">
-        <v>-0.4</v>
-      </c>
+      <c r="BC55" t="inlineStr"/>
+      <c r="BD55" t="inlineStr"/>
+      <c r="BE55" t="inlineStr"/>
       <c r="BF55" t="inlineStr"/>
       <c r="BG55" t="inlineStr"/>
-      <c r="BH55" t="n">
-        <v>0.14457831</v>
-      </c>
+      <c r="BH55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B56" t="n">
         <v>1063148</v>
@@ -10105,10 +10205,10 @@
         <v>317.6075717</v>
       </c>
       <c r="Q56" t="n">
-        <v>29.317622</v>
+        <v>37.46140589</v>
       </c>
       <c r="R56" t="n">
-        <v>29.317622</v>
+        <v>37.46140589</v>
       </c>
       <c r="S56" t="n">
         <v>0</v>
@@ -10123,10 +10223,10 @@
         <v>0</v>
       </c>
       <c r="W56" t="n">
-        <v>346.9251937</v>
+        <v>355.06897759</v>
       </c>
       <c r="X56" t="n">
-        <v>346.9251937</v>
+        <v>355.06897759</v>
       </c>
       <c r="Y56" t="n">
         <v>0.37996652</v>
@@ -10142,12 +10242,12 @@
         <v>0.0099182</v>
       </c>
       <c r="AD56" t="n">
-        <v>0.8015387</v>
+        <v>1.30196612</v>
       </c>
       <c r="AE56" t="inlineStr"/>
       <c r="AF56" t="inlineStr"/>
       <c r="AG56" t="n">
-        <v>0.04886632</v>
+        <v>0.0734876</v>
       </c>
       <c r="AH56" t="n">
         <v>12</v>
@@ -10177,10 +10277,10 @@
         <v>102</v>
       </c>
       <c r="AQ56" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AR56" t="n">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="AS56" t="n">
         <v>0</v>
@@ -10198,10 +10298,10 @@
         <v>12</v>
       </c>
       <c r="AX56" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AY56" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AZ56" t="n">
         <v>0.33333333</v>
@@ -10217,29 +10317,29 @@
         <v>-0.00970874</v>
       </c>
       <c r="BE56" t="n">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="BF56" t="inlineStr"/>
       <c r="BG56" t="inlineStr"/>
       <c r="BH56" t="n">
-        <v>0.0619469</v>
+        <v>0.10619469</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B57" t="n">
-        <v>1004407</v>
+        <v>1010407</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Multiplaza Tegucigalpa</t>
+          <t>Citymall Tegucigalpa</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Tierra Santa El Ultimo Peregrino</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -10253,40 +10353,40 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>104.64762298</v>
+        <v>48.86270334</v>
       </c>
       <c r="H57" t="n">
-        <v>104.64762298</v>
+        <v>48.86270334</v>
       </c>
       <c r="I57" t="n">
-        <v>40.71891945</v>
+        <v>69.22216306</v>
       </c>
       <c r="J57" t="n">
-        <v>40.71891945</v>
+        <v>69.22216306</v>
       </c>
       <c r="K57" t="n">
-        <v>114.01297446</v>
+        <v>73.294055</v>
       </c>
       <c r="L57" t="n">
-        <v>114.01297446</v>
+        <v>73.294055</v>
       </c>
       <c r="M57" t="n">
-        <v>81.4378389</v>
+        <v>101.79729862</v>
       </c>
       <c r="N57" t="n">
-        <v>81.4378389</v>
+        <v>101.79729862</v>
       </c>
       <c r="O57" t="n">
-        <v>340.81735579</v>
+        <v>293.17622003</v>
       </c>
       <c r="P57" t="n">
-        <v>340.81735579</v>
+        <v>293.17622003</v>
       </c>
       <c r="Q57" t="n">
-        <v>0</v>
+        <v>57.00648723</v>
       </c>
       <c r="R57" t="n">
-        <v>0</v>
+        <v>57.00648723</v>
       </c>
       <c r="S57" t="n">
         <v>0</v>
@@ -10301,10 +10401,10 @@
         <v>0</v>
       </c>
       <c r="W57" t="n">
-        <v>340.81735579</v>
+        <v>350.18270726</v>
       </c>
       <c r="X57" t="n">
-        <v>340.81735579</v>
+        <v>350.18270726</v>
       </c>
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
@@ -10316,58 +10416,58 @@
       <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="inlineStr"/>
       <c r="AH57" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AI57" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="AJ57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>18</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>74</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW57" t="n">
         <v>12</v>
       </c>
-      <c r="AK57" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL57" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM57" t="n">
-        <v>36</v>
-      </c>
-      <c r="AN57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AO57" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP57" t="n">
-        <v>105</v>
-      </c>
-      <c r="AQ57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV57" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW57" t="n">
-        <v>34</v>
-      </c>
       <c r="AX57" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AY57" t="n">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="AZ57" t="inlineStr"/>
       <c r="BA57" t="inlineStr"/>
@@ -10381,7 +10481,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B58" t="n">
         <v>1056641</v>
@@ -10393,7 +10493,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -10407,40 +10507,40 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>15.47318939</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>15.47318939</v>
       </c>
       <c r="I58" t="n">
-        <v>16.69475697</v>
+        <v>48.61838982</v>
       </c>
       <c r="J58" t="n">
-        <v>16.69475697</v>
+        <v>48.61838982</v>
       </c>
       <c r="K58" t="n">
-        <v>128.1424395</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>128.1424395</v>
+        <v>0</v>
       </c>
       <c r="M58" t="n">
-        <v>192.68192683</v>
+        <v>263.81787911</v>
       </c>
       <c r="N58" t="n">
-        <v>192.68192683</v>
+        <v>263.81787911</v>
       </c>
       <c r="O58" t="n">
-        <v>337.51912331</v>
+        <v>327.90945832</v>
       </c>
       <c r="P58" t="n">
-        <v>337.51912331</v>
+        <v>327.90945832</v>
       </c>
       <c r="Q58" t="n">
-        <v>0</v>
+        <v>20.5223354</v>
       </c>
       <c r="R58" t="n">
-        <v>0</v>
+        <v>20.5223354</v>
       </c>
       <c r="S58" t="n">
         <v>0</v>
@@ -10455,62 +10555,64 @@
         <v>0</v>
       </c>
       <c r="W58" t="n">
-        <v>337.51912331</v>
+        <v>348.43179372</v>
       </c>
       <c r="X58" t="n">
-        <v>337.51912331</v>
-      </c>
-      <c r="Y58" t="inlineStr"/>
+        <v>348.43179372</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>7.0920178</v>
+      </c>
       <c r="Z58" t="n">
-        <v>-0.71699967</v>
-      </c>
-      <c r="AA58" t="n">
-        <v>-0.41072214</v>
-      </c>
+        <v>-0.24604374</v>
+      </c>
+      <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="n">
-        <v>0.31849807</v>
+        <v>0.32472696</v>
       </c>
       <c r="AC58" t="n">
-        <v>-0.20130108</v>
-      </c>
-      <c r="AD58" t="inlineStr"/>
+        <v>0.23485276</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>-0.3457447</v>
+      </c>
       <c r="AE58" t="inlineStr"/>
       <c r="AF58" t="inlineStr"/>
       <c r="AG58" t="n">
-        <v>-0.20130108</v>
+        <v>0.17351532</v>
       </c>
       <c r="AH58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AJ58" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AK58" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AL58" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AM58" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AN58" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="AO58" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="AP58" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AQ58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR58" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS58" t="n">
         <v>0</v>
@@ -10525,37 +10627,39 @@
         <v>0</v>
       </c>
       <c r="AW58" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AX58" t="n">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="AY58" t="n">
-        <v>92</v>
-      </c>
-      <c r="AZ58" t="inlineStr"/>
+        <v>95</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>3</v>
+      </c>
       <c r="BA58" t="n">
-        <v>-0.6875</v>
-      </c>
-      <c r="BB58" t="n">
-        <v>-0.40677966</v>
-      </c>
+        <v>-0.17647059</v>
+      </c>
+      <c r="BB58" t="inlineStr"/>
       <c r="BC58" t="n">
-        <v>0.20930233</v>
+        <v>0.29090909</v>
       </c>
       <c r="BD58" t="n">
-        <v>-0.22033898</v>
-      </c>
-      <c r="BE58" t="inlineStr"/>
+        <v>0.21917808</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>-0.4</v>
+      </c>
       <c r="BF58" t="inlineStr"/>
       <c r="BG58" t="inlineStr"/>
       <c r="BH58" t="n">
-        <v>-0.22033898</v>
+        <v>0.14457831</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B59" t="n">
         <v>1077101</v>
@@ -10611,10 +10715,10 @@
         <v>326.64717182</v>
       </c>
       <c r="Q59" t="n">
-        <v>3.25751356</v>
+        <v>13.03005423</v>
       </c>
       <c r="R59" t="n">
-        <v>3.25751356</v>
+        <v>13.03005423</v>
       </c>
       <c r="S59" t="n">
         <v>0</v>
@@ -10629,10 +10733,10 @@
         <v>0</v>
       </c>
       <c r="W59" t="n">
-        <v>329.90468538</v>
+        <v>339.67722604</v>
       </c>
       <c r="X59" t="n">
-        <v>329.90468538</v>
+        <v>339.67722604</v>
       </c>
       <c r="Y59" t="n">
         <v>-0.7840143000000001</v>
@@ -10650,12 +10754,12 @@
         <v>-0.50118927</v>
       </c>
       <c r="AD59" t="n">
-        <v>-0.96428707</v>
+        <v>-0.85714828</v>
       </c>
       <c r="AE59" t="inlineStr"/>
       <c r="AF59" t="inlineStr"/>
       <c r="AG59" t="n">
-        <v>-0.55780751</v>
+        <v>-0.54470874</v>
       </c>
       <c r="AH59" t="n">
         <v>11</v>
@@ -10685,10 +10789,10 @@
         <v>116</v>
       </c>
       <c r="AQ59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AR59" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AS59" t="n">
         <v>0</v>
@@ -10706,10 +10810,10 @@
         <v>11</v>
       </c>
       <c r="AX59" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AY59" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="AZ59" t="n">
         <v>-0.7962963</v>
@@ -10727,17 +10831,17 @@
         <v>-0.50214592</v>
       </c>
       <c r="BE59" t="n">
-        <v>-0.93939394</v>
+        <v>-0.75757576</v>
       </c>
       <c r="BF59" t="inlineStr"/>
       <c r="BG59" t="inlineStr"/>
       <c r="BH59" t="n">
-        <v>-0.55639098</v>
+        <v>-0.53383459</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B60" t="n">
         <v>1006720</v>
@@ -10793,10 +10897,10 @@
         <v>293.17622003</v>
       </c>
       <c r="Q60" t="n">
-        <v>0</v>
+        <v>45.60518978</v>
       </c>
       <c r="R60" t="n">
-        <v>0</v>
+        <v>45.60518978</v>
       </c>
       <c r="S60" t="n">
         <v>0</v>
@@ -10811,10 +10915,10 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>293.17622003</v>
+        <v>338.78140981</v>
       </c>
       <c r="X60" t="n">
-        <v>293.17622003</v>
+        <v>338.78140981</v>
       </c>
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
@@ -10853,10 +10957,10 @@
         <v>76</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AR60" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS60" t="n">
         <v>0</v>
@@ -10874,10 +10978,10 @@
         <v>1</v>
       </c>
       <c r="AX60" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AY60" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="AZ60" t="inlineStr"/>
       <c r="BA60" t="inlineStr"/>
@@ -10891,60 +10995,60 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B61" t="n">
-        <v>1010407</v>
+        <v>1056641</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Citymall Tegucigalpa</t>
+          <t>altara</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>San Pedro Sula</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinepolis</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>48.86270334</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
-        <v>48.86270334</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>69.22216306</v>
+        <v>16.69475697</v>
       </c>
       <c r="J61" t="n">
-        <v>69.22216306</v>
+        <v>16.69475697</v>
       </c>
       <c r="K61" t="n">
-        <v>73.294055</v>
+        <v>128.1424395</v>
       </c>
       <c r="L61" t="n">
-        <v>73.294055</v>
+        <v>128.1424395</v>
       </c>
       <c r="M61" t="n">
-        <v>101.79729862</v>
+        <v>192.68192683</v>
       </c>
       <c r="N61" t="n">
-        <v>101.79729862</v>
+        <v>192.68192683</v>
       </c>
       <c r="O61" t="n">
-        <v>293.17622003</v>
+        <v>337.51912331</v>
       </c>
       <c r="P61" t="n">
-        <v>293.17622003</v>
+        <v>337.51912331</v>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -10965,46 +11069,56 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>293.17622003</v>
+        <v>337.51912331</v>
       </c>
       <c r="X61" t="n">
-        <v>293.17622003</v>
+        <v>337.51912331</v>
       </c>
       <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
+      <c r="Z61" t="n">
+        <v>-0.71699967</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>-0.41072214</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>0.31849807</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>-0.20130108</v>
+      </c>
       <c r="AD61" t="inlineStr"/>
       <c r="AE61" t="inlineStr"/>
       <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
+      <c r="AG61" t="n">
+        <v>-0.20130108</v>
+      </c>
       <c r="AH61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AI61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AJ61" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AK61" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="AL61" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AM61" t="n">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="AN61" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="AO61" t="n">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="AP61" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AQ61" t="n">
         <v>0</v>
@@ -11025,27 +11139,37 @@
         <v>0</v>
       </c>
       <c r="AW61" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AX61" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AY61" t="n">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="AZ61" t="inlineStr"/>
-      <c r="BA61" t="inlineStr"/>
-      <c r="BB61" t="inlineStr"/>
-      <c r="BC61" t="inlineStr"/>
-      <c r="BD61" t="inlineStr"/>
+      <c r="BA61" t="n">
+        <v>-0.6875</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>-0.40677966</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>0.20930233</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>-0.22033898</v>
+      </c>
       <c r="BE61" t="inlineStr"/>
       <c r="BF61" t="inlineStr"/>
       <c r="BG61" t="inlineStr"/>
-      <c r="BH61" t="inlineStr"/>
+      <c r="BH61" t="n">
+        <v>-0.22033898</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B62" t="n">
         <v>1004408</v>
@@ -11101,10 +11225,10 @@
         <v>256.93638172</v>
       </c>
       <c r="Q62" t="n">
-        <v>0</v>
+        <v>45.19800059</v>
       </c>
       <c r="R62" t="n">
-        <v>0</v>
+        <v>45.19800059</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -11119,10 +11243,10 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>256.93638172</v>
+        <v>302.13438231</v>
       </c>
       <c r="X62" t="n">
-        <v>256.93638172</v>
+        <v>302.13438231</v>
       </c>
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
@@ -11161,10 +11285,10 @@
         <v>79</v>
       </c>
       <c r="AQ62" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR62" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS62" t="n">
         <v>0</v>
@@ -11182,10 +11306,10 @@
         <v>12</v>
       </c>
       <c r="AX62" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AY62" t="n">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="AZ62" t="inlineStr"/>
       <c r="BA62" t="inlineStr"/>
@@ -11255,10 +11379,10 @@
         <v>250.62494921</v>
       </c>
       <c r="Q63" t="n">
-        <v>0</v>
+        <v>22.47684354</v>
       </c>
       <c r="R63" t="n">
-        <v>0</v>
+        <v>22.47684354</v>
       </c>
       <c r="S63" t="n">
         <v>0</v>
@@ -11273,10 +11397,10 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>250.62494921</v>
+        <v>273.10179274</v>
       </c>
       <c r="X63" t="n">
-        <v>250.62494921</v>
+        <v>273.10179274</v>
       </c>
       <c r="Y63" t="n">
         <v>-0.19931613</v>
@@ -11293,11 +11417,13 @@
       <c r="AC63" t="n">
         <v>-0.49773653</v>
       </c>
-      <c r="AD63" t="inlineStr"/>
+      <c r="AD63" t="n">
+        <v>-0.67634923</v>
+      </c>
       <c r="AE63" t="inlineStr"/>
       <c r="AF63" t="inlineStr"/>
       <c r="AG63" t="n">
-        <v>-0.49773653</v>
+        <v>-0.51955816</v>
       </c>
       <c r="AH63" t="n">
         <v>19</v>
@@ -11327,10 +11453,10 @@
         <v>77</v>
       </c>
       <c r="AQ63" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR63" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS63" t="n">
         <v>0</v>
@@ -11348,10 +11474,10 @@
         <v>19</v>
       </c>
       <c r="AX63" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AY63" t="n">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AZ63" t="n">
         <v>0</v>
@@ -11368,11 +11494,13 @@
       <c r="BD63" t="n">
         <v>-0.44604317</v>
       </c>
-      <c r="BE63" t="inlineStr"/>
+      <c r="BE63" t="n">
+        <v>-0.55</v>
+      </c>
       <c r="BF63" t="inlineStr"/>
       <c r="BG63" t="inlineStr"/>
       <c r="BH63" t="n">
-        <v>-0.44604317</v>
+        <v>-0.4591195</v>
       </c>
     </row>
   </sheetData>
